--- a/data/hotels_by_city/Dallas/Dallas_shard_741.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_741.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="456">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1262 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r577968019-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>55931</t>
+  </si>
+  <si>
+    <t>106964</t>
+  </si>
+  <si>
+    <t>577968019</t>
+  </si>
+  <si>
+    <t>05/04/2018</t>
+  </si>
+  <si>
+    <t>Trying Hard but not there</t>
+  </si>
+  <si>
+    <t>The lobby was clean but very dated.  The staff was friendly.  The exterior of the property was filthy.  The window ledges in the room were dirty.  The mini-fridge had mold growing inside and did not cool properly.  I cleaned it and then reported to staff.  No compensation was offered.  The breakfast was ok but the room is way too small. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Kevin P, Manager at Super 8 Greenville, responded to this reviewResponded May 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2018</t>
+  </si>
+  <si>
+    <t>The lobby was clean but very dated.  The staff was friendly.  The exterior of the property was filthy.  The window ledges in the room were dirty.  The mini-fridge had mold growing inside and did not cool properly.  I cleaned it and then reported to staff.  No compensation was offered.  The breakfast was ok but the room is way too small. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r550270064-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>550270064</t>
+  </si>
+  <si>
+    <t>12/30/2017</t>
+  </si>
+  <si>
+    <t>This place is in dire need of renovations.   It smelled...</t>
+  </si>
+  <si>
+    <t>This place is in dire need of renovations.   It smelled like hotels from the 60s.  There were dead bugs around the baseboards.   The blanket on the bed felt like foam comparable to a foam insulation.  I think there had been a leak in the corner near the entrance door.   The carpet is black in that area and is possibly mold which could be the reason for the smell.  We most likely will not stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Kevin P, Manager at Super 8 Greenville, responded to this reviewResponded January 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 1, 2018</t>
+  </si>
+  <si>
+    <t>This place is in dire need of renovations.   It smelled like hotels from the 60s.  There were dead bugs around the baseboards.   The blanket on the bed felt like foam comparable to a foam insulation.  I think there had been a leak in the corner near the entrance door.   The carpet is black in that area and is possibly mold which could be the reason for the smell.  We most likely will not stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r547095742-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>547095742</t>
+  </si>
+  <si>
+    <t>12/13/2017</t>
+  </si>
+  <si>
+    <t>Not good</t>
+  </si>
+  <si>
+    <t>There were dead bugs. The sheets were scratchy. Very few people were there,  but they put someone right above us and they jumped around all morning.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Kevin P, Manager at Super 8 Greenville, responded to this reviewResponded December 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2017</t>
+  </si>
+  <si>
+    <t>There were dead bugs. The sheets were scratchy. Very few people were there,  but they put someone right above us and they jumped around all morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r525877545-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>525877545</t>
+  </si>
+  <si>
+    <t>09/19/2017</t>
+  </si>
+  <si>
+    <t>Super 8 Greenville, TX</t>
+  </si>
+  <si>
+    <t>For me Super 8 is a total gamble. Most of the time a disappointment and occasionally a nice one. This one was the severely outdated model which should have been charging $ 39,95 per night at best. And you wonder why I seldom stay at these flea bags.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Kevin P, Manager at Super 8 Greenville, responded to this reviewResponded September 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2017</t>
+  </si>
+  <si>
+    <t>For me Super 8 is a total gamble. Most of the time a disappointment and occasionally a nice one. This one was the severely outdated model which should have been charging $ 39,95 per night at best. And you wonder why I seldom stay at these flea bags.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r523815393-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>523815393</t>
+  </si>
+  <si>
+    <t>09/12/2017</t>
+  </si>
+  <si>
+    <t>quick trip</t>
+  </si>
+  <si>
+    <t>nice hotel  wish it had indoor entrances  had to go outside and walk around building to get to lobby and  breakfast MoreShow less</t>
+  </si>
+  <si>
+    <t>Kevin P, Manager at Super 8 Greenville, responded to this reviewResponded September 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2017</t>
+  </si>
+  <si>
+    <t>nice hotel  wish it had indoor entrances  had to go outside and walk around building to get to lobby and  breakfast More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r515555909-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>515555909</t>
+  </si>
+  <si>
+    <t>08/20/2017</t>
+  </si>
+  <si>
+    <t>Family weekend</t>
+  </si>
+  <si>
+    <t>Need a place to stay after a family party. I found this motel on TripAdvisor web site. The room was clean. Smelled fine. Price was competitive. Greeting staff was friendly. Breakfast was good. The only thing that I find fault with is trying to find it. Looked it up on my GPS. It showed it in the wrong place. The address on website was confusing. It may not be their fault. In all it was a good place for the price. It's not a 5 star hotel but I didn't pay for a 5 star hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Kevin P, Manager at Super 8 Greenville, responded to this reviewResponded August 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2017</t>
+  </si>
+  <si>
+    <t>Need a place to stay after a family party. I found this motel on TripAdvisor web site. The room was clean. Smelled fine. Price was competitive. Greeting staff was friendly. Breakfast was good. The only thing that I find fault with is trying to find it. Looked it up on my GPS. It showed it in the wrong place. The address on website was confusing. It may not be their fault. In all it was a good place for the price. It's not a 5 star hotel but I didn't pay for a 5 star hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r504006888-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>504006888</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>Meets expectations except the hot tub they advertise is...</t>
+  </si>
+  <si>
+    <t>Meets expectations except the hot tub they advertise is small and was not clean.  They are renovating, so there are workers and loud noises of tools and banging until the evening.  Breakfast was mediocre and light.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Kevin P, Manager at Super 8 Greenville, responded to this reviewResponded July 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2017</t>
+  </si>
+  <si>
+    <t>Meets expectations except the hot tub they advertise is small and was not clean.  They are renovating, so there are workers and loud noises of tools and banging until the evening.  Breakfast was mediocre and light.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r497475679-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>497475679</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Kevin P, Manager at Super 8 Greenville, responded to this reviewResponded July 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r496910773-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>496910773</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Everything was great except for the water temperature. It didn't stay warm very long. I did report it upon my leaving,  and the manager explained why.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kevin P, Manager at Super 8 Greenville, responded to this reviewResponded June 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2017</t>
+  </si>
+  <si>
+    <t>Everything was great except for the water temperature. It didn't stay warm very long. I did report it upon my leaving,  and the manager explained why.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r487715263-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>487715263</t>
+  </si>
+  <si>
+    <t>05/25/2017</t>
+  </si>
+  <si>
+    <t>Worst experience</t>
+  </si>
+  <si>
+    <t>I booked our room on booking.com for $89 when I checked in I was given a bill for $103. The lady was not pleasant to work with we had to wait until the owners were present to get the price we originally booked on booking.com they claimed the computer wasn't working (after I showed her my booking information). She charged us the $103 and refunded us the other half, but days after my card was charged again and we had to contact them to get our refund. Room had a odd smell, surroundings were creepy cops showed up at one of the rooms. People were walking around the parking lot late at night digging through the trash and wondering the parking lot. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Kevin P, Manager at Super 8 Greenville, responded to this reviewResponded May 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2017</t>
+  </si>
+  <si>
+    <t>I booked our room on booking.com for $89 when I checked in I was given a bill for $103. The lady was not pleasant to work with we had to wait until the owners were present to get the price we originally booked on booking.com they claimed the computer wasn't working (after I showed her my booking information). She charged us the $103 and refunded us the other half, but days after my card was charged again and we had to contact them to get our refund. Room had a odd smell, surroundings were creepy cops showed up at one of the rooms. People were walking around the parking lot late at night digging through the trash and wondering the parking lot. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r484995686-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>484995686</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>Super 8 Greenville TX</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay. The room was very good clean and everything was in-working order. The Super 8 breakfast was good.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Kevin P, Manager at Super 8 Greenville, responded to this reviewResponded May 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2017</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay. The room was very good clean and everything was in-working order. The Super 8 breakfast was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r484802970-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>484802970</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Fine for a low cost motel.</t>
+  </si>
+  <si>
+    <t>The room was updated with nice tv, granite bathroom vanity, etc. 2 complaints; the bedspread and blanket were clearly not washed after each use as ours had some white spots on them (God only knows what they were but I have a guess). Not a big deal since I generally strip the bedspread and blanket off before I get in bed. The breakfast was very limited. The fruit offering contained 1 (yes, one) banana for everyone and signs for cinnamon rolls all over but no rolls. The check in was kind of weird. The man at the desk had my website reservation with all my information and still asked me to fill out a old style NCR paper registration form to "help him out". I was a little concerned with my personal data being on a piece of paper that who knows where it will end up. I figured the Russians already had all my data so it probably wasn't a big deal. Fine for a quick night's stay, but I would not recommend it for any longer. MoreShow less</t>
+  </si>
+  <si>
+    <t>Kevin P, Manager at Super 8 Greenville, responded to this reviewResponded May 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2017</t>
+  </si>
+  <si>
+    <t>The room was updated with nice tv, granite bathroom vanity, etc. 2 complaints; the bedspread and blanket were clearly not washed after each use as ours had some white spots on them (God only knows what they were but I have a guess). Not a big deal since I generally strip the bedspread and blanket off before I get in bed. The breakfast was very limited. The fruit offering contained 1 (yes, one) banana for everyone and signs for cinnamon rolls all over but no rolls. The check in was kind of weird. The man at the desk had my website reservation with all my information and still asked me to fill out a old style NCR paper registration form to "help him out". I was a little concerned with my personal data being on a piece of paper that who knows where it will end up. I figured the Russians already had all my data so it probably wasn't a big deal. Fine for a quick night's stay, but I would not recommend it for any longer. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r479518946-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>479518946</t>
+  </si>
+  <si>
+    <t>04/27/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel, nice location</t>
+  </si>
+  <si>
+    <t>Our family really enjoyed this Hotel and it's location,  we would highly recommend if you are stopping in Greenville, Texas this Hotel would be a Great choice. Close to everything restaurants and shopping, fuel and the staff will do anything possible to make you stay a little bit better. Our room was very spacious and clean. Thanks John L.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Kevin P, Manager at Super 8 Greenville, responded to this reviewResponded April 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2017</t>
+  </si>
+  <si>
+    <t>Our family really enjoyed this Hotel and it's location,  we would highly recommend if you are stopping in Greenville, Texas this Hotel would be a Great choice. Close to everything restaurants and shopping, fuel and the staff will do anything possible to make you stay a little bit better. Our room was very spacious and clean. Thanks John L.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r477465747-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>477465747</t>
+  </si>
+  <si>
+    <t>04/20/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r476861667-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>476861667</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>No complaints except for a slight smell in room when entering, other than that, good value for a roomy place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kevin P, Manager at Super 8 Greenville, responded to this reviewResponded April 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2017</t>
+  </si>
+  <si>
+    <t>No complaints except for a slight smell in room when entering, other than that, good value for a roomy place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r473580217-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>473580217</t>
+  </si>
+  <si>
+    <t>04/08/2017</t>
+  </si>
+  <si>
+    <t>Terrible experience!</t>
+  </si>
+  <si>
+    <t>This was the worst motel I have ever stayed in! Used 15000 points on this filthy dirty place. If we had not been so tired we would not have stayed. It smelled bad and was very dirty. The only thing I can say good about it is they did not have bed bugs (I checked). Do not stay at this place, you will be sorry. Even the grounds were dirty and needed mowing badly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kevin P, Manager at Super 8 Greenville, responded to this reviewResponded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2017</t>
+  </si>
+  <si>
+    <t>This was the worst motel I have ever stayed in! Used 15000 points on this filthy dirty place. If we had not been so tired we would not have stayed. It smelled bad and was very dirty. The only thing I can say good about it is they did not have bed bugs (I checked). Do not stay at this place, you will be sorry. Even the grounds were dirty and needed mowing badly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r470872164-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>470872164</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Kevin P, Manager at Super 8 Greenville, responded to this reviewResponded March 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r469524382-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>469524382</t>
+  </si>
+  <si>
+    <t>03/22/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r442403562-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>442403562</t>
+  </si>
+  <si>
+    <t>12/06/2016</t>
+  </si>
+  <si>
+    <t>A bit dirty</t>
+  </si>
+  <si>
+    <t>The room was a bit dirty and smelly. The bed had a weird sticky cover between the spread and the sheets. It felt gross. The carpet was stained. The bed sheets seemed clean enough.The breakfast food was awful,</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r439009126-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>439009126</t>
+  </si>
+  <si>
+    <t>11/21/2016</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r437857579-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>437857579</t>
+  </si>
+  <si>
+    <t>11/16/2016</t>
+  </si>
+  <si>
+    <t>Ft smith weekend away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unable to get a roll away... it is listed as an amenity available there.  NO elevator.  I had a broken leg and had to crawl up to the 2nd floor   Beds not very comfortable </t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r427940423-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>427940423</t>
+  </si>
+  <si>
+    <t>10/14/2016</t>
+  </si>
+  <si>
+    <t>high-end Super 8</t>
+  </si>
+  <si>
+    <t>clean, comfortable well-designed room; friendly, helpful staff; short drive to downtown Greenville.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r427733061-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>427733061</t>
+  </si>
+  <si>
+    <t>10/13/2016</t>
+  </si>
+  <si>
+    <t>One night stay.</t>
+  </si>
+  <si>
+    <t>Quiet comfortable. Swimming pool. The room is larger than most. Comfortable sofa, king size bed, nice and firm. Large tv digital and had a great reception. The staff very friendly and helpful. Clean parking lot. Easy on and easy off IH 30 and Bus.69. Several eateries within walking distance. However easy to get to better eateries within 10 mins. Overall a good value.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r417252563-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>417252563</t>
+  </si>
+  <si>
+    <t>09/11/2016</t>
+  </si>
+  <si>
+    <t>Service was good</t>
+  </si>
+  <si>
+    <t>The dining area was so small, the counter tops were clean, the cabinet fronts need immediate attention but the walls/receptacles/vented were all very nasty/dirty, I even took pictures thinking corporate might like to see it? The staff was GREAT tho!</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r389683211-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>389683211</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r382242444-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>382242444</t>
+  </si>
+  <si>
+    <t>06/13/2016</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised and Enjoyed my Stay</t>
+  </si>
+  <si>
+    <t>We got this reservation the night before and I wasn't real hopeful with what the room would be like.  I couldn't have been do wrong.  There were some things that needed to be fixed, such as the small table between the queen beds (there was water damage on it).  There were also holes in the main dresser from where the former television was bolted to the counter.  But that is it on the negatives. The bed was comfortable. The price was great, I had no contact with the staff.  The room was clean.  And for the price it was pretty good size.  There was a breakfast, but I didn't partake since I needed sleep more.  I was happy with this stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>We got this reservation the night before and I wasn't real hopeful with what the room would be like.  I couldn't have been do wrong.  There were some things that needed to be fixed, such as the small table between the queen beds (there was water damage on it).  There were also holes in the main dresser from where the former television was bolted to the counter.  But that is it on the negatives. The bed was comfortable. The price was great, I had no contact with the staff.  The room was clean.  And for the price it was pretty good size.  There was a breakfast, but I didn't partake since I needed sleep more.  I was happy with this stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r379769400-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>379769400</t>
+  </si>
+  <si>
+    <t>06/04/2016</t>
+  </si>
+  <si>
+    <t>The room was horrible smelling.....very musty. The towel...</t>
+  </si>
+  <si>
+    <t>The room was horrible smelling.....very musty. The towel had 2 big holes in it. The refrigerator leaked water all over my leftover food that was in it. We couldn't wait to get out of there. It was a huge disappointment.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r373900222-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>373900222</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>The desk clerk was very very friendly. He went above and beyond to help me out. I will be sure to stay here again the next time I come this way. The room was clean and comfortable. I was not disappointed.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r372697469-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>372697469</t>
+  </si>
+  <si>
+    <t>05/13/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r364004996-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>364004996</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t>Very Overpriced</t>
+  </si>
+  <si>
+    <t>The manager Kevin Patel was very rude and was not a very nice person at all.The rooms were not clean and the door was broken on the first one we went to.I asked for a refund , he got pissed off , started cursing . He didnt know how to give refunds and  had to call someone to teach him how. He was very rude on the phone with them too. They hung up on him. lol.Got mad at me again and started cursing at me. I called the Police on him.He finally gave me reciepts showing a refund even though he actually had charged me twice . 2 refunds , I will let my company know NOT to send us ( my 12 business partners ) back to this motel ever again.We will stay else where.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>The manager Kevin Patel was very rude and was not a very nice person at all.The rooms were not clean and the door was broken on the first one we went to.I asked for a refund , he got pissed off , started cursing . He didnt know how to give refunds and  had to call someone to teach him how. He was very rude on the phone with them too. They hung up on him. lol.Got mad at me again and started cursing at me. I called the Police on him.He finally gave me reciepts showing a refund even though he actually had charged me twice . 2 refunds , I will let my company know NOT to send us ( my 12 business partners ) back to this motel ever again.We will stay else where.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r341292678-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>341292678</t>
+  </si>
+  <si>
+    <t>01/19/2016</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r331699990-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>331699990</t>
+  </si>
+  <si>
+    <t>12/09/2015</t>
+  </si>
+  <si>
+    <t>Overpriced</t>
+  </si>
+  <si>
+    <t>I stopped in Greenville for the night and needed a room. I was too tired to drive allover town so settled for Super 8. Given the Motel 6 next door was $35, I was expecting maybe $50-$55, but NOT $70. I was too tired to argue, so just got the room. The room was slightly oversized with a love seat and a partial room divider. Given what I was charged, it must have been a small suite. The room was clean, there was plenty of hot water in the shower and the bed was halfway comfortable, except for the flat pillows. I asked about someplace to eat and was told all there was, was two Mexican restaurants, Applebees, and Chili's. Cracker Barrel? Chinese buffet? Pizza? "No", I was told, none of those. So I drove to the next exit and ate at Chili's. Then I found another Mexican restaurant. The next morning, I spent a couple hours exploring town and found a Cracker Barrrel, and a Chinese buffet, and a pizza place, and lot of other restaurants. So why was I told none of those places existed?I never saw many cars at the motel, so I guess most people were smart enough to go elsewhere. I'll remember that next time.I also got to see the owner's bright, shiny BMW parked in front of the hotel. If you can afford a Beemer, you can afford better pillows.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>I stopped in Greenville for the night and needed a room. I was too tired to drive allover town so settled for Super 8. Given the Motel 6 next door was $35, I was expecting maybe $50-$55, but NOT $70. I was too tired to argue, so just got the room. The room was slightly oversized with a love seat and a partial room divider. Given what I was charged, it must have been a small suite. The room was clean, there was plenty of hot water in the shower and the bed was halfway comfortable, except for the flat pillows. I asked about someplace to eat and was told all there was, was two Mexican restaurants, Applebees, and Chili's. Cracker Barrel? Chinese buffet? Pizza? "No", I was told, none of those. So I drove to the next exit and ate at Chili's. Then I found another Mexican restaurant. The next morning, I spent a couple hours exploring town and found a Cracker Barrrel, and a Chinese buffet, and a pizza place, and lot of other restaurants. So why was I told none of those places existed?I never saw many cars at the motel, so I guess most people were smart enough to go elsewhere. I'll remember that next time.I also got to see the owner's bright, shiny BMW parked in front of the hotel. If you can afford a Beemer, you can afford better pillows.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r283147395-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>283147395</t>
+  </si>
+  <si>
+    <t>06/26/2015</t>
+  </si>
+  <si>
+    <t>Smelly, dirty and overpriced</t>
+  </si>
+  <si>
+    <t>We'd been on the road for more than 12 hours. The Motel 6 was already booked. (We discovered there was a church conference in town.) We pulled in here and discovered they were pet-friendly and decided to stay because our options were limited as we were in the middle of nowhere. I still can't believe we paid more than $100 for this dump. Room was so smelly, they plugged in an Air-Wick room fresher. So it was smelly AND over perfumed. Quite horrific. Carpets left my socks dirty. Blanket was a spongey nasty thing with cigarette burns. We were there all of six hours to sleep and promptly leave. We're on the road a lot and will never stop here again. FYI, the woman at the desk in the dirty white polo shirt should have tipped us off immediately that this was far from a great hotel. But we were so exhausted, we caved. I provide this review as a help to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>We'd been on the road for more than 12 hours. The Motel 6 was already booked. (We discovered there was a church conference in town.) We pulled in here and discovered they were pet-friendly and decided to stay because our options were limited as we were in the middle of nowhere. I still can't believe we paid more than $100 for this dump. Room was so smelly, they plugged in an Air-Wick room fresher. So it was smelly AND over perfumed. Quite horrific. Carpets left my socks dirty. Blanket was a spongey nasty thing with cigarette burns. We were there all of six hours to sleep and promptly leave. We're on the road a lot and will never stop here again. FYI, the woman at the desk in the dirty white polo shirt should have tipped us off immediately that this was far from a great hotel. But we were so exhausted, we caved. I provide this review as a help to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r237671516-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>237671516</t>
+  </si>
+  <si>
+    <t>11/02/2014</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>We were very pleased with the whole experience. The room was very nice and clean. The staff was every helpful and courteous.  MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Kevin P, Manager at Super 8 Greenville, responded to this reviewResponded November 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2014</t>
+  </si>
+  <si>
+    <t>We were very pleased with the whole experience. The room was very nice and clean. The staff was every helpful and courteous.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r236640080-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>236640080</t>
+  </si>
+  <si>
+    <t>10/27/2014</t>
+  </si>
+  <si>
+    <t>dirty carpet, My socks got filthy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room was clean other than the carpet. My socks got filthy. I was awoken at 4 am because of the guy next door snoring so I just packed up to leave. No coffee at the office as she said was too early.   </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r224320953-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>224320953</t>
+  </si>
+  <si>
+    <t>08/25/2014</t>
+  </si>
+  <si>
+    <t>What went wrong?</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel 2 weekends a row. First weekend great. Second weekend first night fine. Room clean and nice aroma. Second night a disaster. Keys would not unlock door. Walked a long way to re set them. Opened the door to a room that had not been cleaned. Bed not made, no clean towels, soap etc. Walked another LONG way to complain. Was told the maids only made a certain amt per room and probably omitted ours. No I'm sorry, no compensation.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Kevin P, Senior desk clerk at Super 8 Greenville, responded to this reviewResponded August 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2014</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel 2 weekends a row. First weekend great. Second weekend first night fine. Room clean and nice aroma. Second night a disaster. Keys would not unlock door. Walked a long way to re set them. Opened the door to a room that had not been cleaned. Bed not made, no clean towels, soap etc. Walked another LONG way to complain. Was told the maids only made a certain amt per room and probably omitted ours. No I'm sorry, no compensation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r209965136-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>209965136</t>
+  </si>
+  <si>
+    <t>06/11/2014</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Kevin P, Senior Desk Clerk at Super 8 Greenville, responded to this reviewResponded August 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r208125228-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>208125228</t>
+  </si>
+  <si>
+    <t>05/30/2014</t>
+  </si>
+  <si>
+    <t>Keep going dont stop here</t>
+  </si>
+  <si>
+    <t>The hotel lobby had a strange smell now i realize it was bug spray. There was a dead roach in the bathroom the refrigerator did not work we walked to the pool it was disgusting sand inside trash in the water i would not recommend this hotel period does not even deserve a 1.  Super 8 has become super 0MoreShow less</t>
+  </si>
+  <si>
+    <t>Kevin P, Manager at Super 8 Greenville, responded to this reviewResponded June 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2014</t>
+  </si>
+  <si>
+    <t>The hotel lobby had a strange smell now i realize it was bug spray. There was a dead roach in the bathroom the refrigerator did not work we walked to the pool it was disgusting sand inside trash in the water i would not recommend this hotel period does not even deserve a 1.  Super 8 has become super 0More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r205534049-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>205534049</t>
+  </si>
+  <si>
+    <t>05/14/2014</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r196947809-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>196947809</t>
+  </si>
+  <si>
+    <t>03/10/2014</t>
+  </si>
+  <si>
+    <t>I don't plan to stay at this motel again.  There is no...</t>
+  </si>
+  <si>
+    <t>I don't plan to stay at this motel again.  There is no reason to lock a paying motel guest out of their room at 9:00 a.m.  Per the motel policy, checkout is anytime before 11:00 a.m.  We've stayed at this motel on 2 different occasions and this took place on both stays (on duty clerk was notified of the situation).  Breakfast items were "slim pickins" also. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Kevin P, Manager at Super 8 Greenville, responded to this reviewResponded March 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2014</t>
+  </si>
+  <si>
+    <t>I don't plan to stay at this motel again.  There is no reason to lock a paying motel guest out of their room at 9:00 a.m.  Per the motel policy, checkout is anytime before 11:00 a.m.  We've stayed at this motel on 2 different occasions and this took place on both stays (on duty clerk was notified of the situation).  Breakfast items were "slim pickins" also. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r196202074-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>196202074</t>
+  </si>
+  <si>
+    <t>03/04/2014</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r192703857-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>192703857</t>
+  </si>
+  <si>
+    <t>01/31/2014</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>We were staying to visit family in Commerce.  The location was great, the room comfortable and clean and the staff very friendly and helpful.  The breakfast could have a few more items; e.g. yogurt, more milk variety (lowest fat was 2%) and more/fresher fruit.We will likely return.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r172410574-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>172410574</t>
+  </si>
+  <si>
+    <t>08/15/2013</t>
+  </si>
+  <si>
+    <t>Greenville Super8</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised by this property. It was very well kept, the non-smoking room was fresh, and the staff friendly and helpful. I'd stay again whenever I'm in the area.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r169816053-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>169816053</t>
+  </si>
+  <si>
+    <t>07/29/2013</t>
+  </si>
+  <si>
+    <t>Good Stop</t>
+  </si>
+  <si>
+    <t>Stopped here on way home.  Good rate for just dropping in.  Desk clerk was very nice.  Room was clean and spacious.  Bed was on the hard side.  Parking was good and close to room.  Good location just of I-30.  Glad we stopped here</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r166108171-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>166108171</t>
+  </si>
+  <si>
+    <t>07/02/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r163952648-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>163952648</t>
+  </si>
+  <si>
+    <t>06/14/2013</t>
+  </si>
+  <si>
+    <t>Great value and location</t>
+  </si>
+  <si>
+    <t>Our room was clean and ac was wonderful .The staff was friendly and helpful for our week long stay .If all Super 8 motels are like this then I would recommend them to everyone on a budget. The exercise room was handily located near the pool and the washer and dryer was  a  convenience. MoreShow less</t>
+  </si>
+  <si>
+    <t>Kevin P, Manager at Super 8 Greenville, responded to this reviewResponded November 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2013</t>
+  </si>
+  <si>
+    <t>Our room was clean and ac was wonderful .The staff was friendly and helpful for our week long stay .If all Super 8 motels are like this then I would recommend them to everyone on a budget. The exercise room was handily located near the pool and the washer and dryer was  a  convenience. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r162165939-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>162165939</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>Rude, unapologetic, unsafe, and overpriced</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at this motel in part because of the positive reviews we had read earlier and the fact that it was pet friendly. We figured it'd be nicer than staying at Motel 6 but I doubt the experience was that much better than it would've been at the Motel 6. First of all, going into it, I knew there was a pet fee which I thought was a bit high but thought it'd be worth it for what was supposed to be a nice, comfortable motel. I noted on the reservation that we had 2 dogs so there'd be no confusion. When we got to the motel we were given the keys to a room that hadn't been cleaned and we had to ask to change rooms. The next room at least had been cleaned but the mattress was so uncomfortable that it was like sleeping on a rock. Because of that it took hours to be able to actually get any sleep. When we finally were able to get anything resembling sleep, the phone rang at 6:30am and it was the manager at the front desk. Of course he'd woken us up and we never requested a wake up call. The manager asked if my name was Mr. David and I said yes and then he hung up on me. My wife called back to see what the problem was and he told her that...My wife and I stayed at this motel in part because of the positive reviews we had read earlier and the fact that it was pet friendly. We figured it'd be nicer than staying at Motel 6 but I doubt the experience was that much better than it would've been at the Motel 6. First of all, going into it, I knew there was a pet fee which I thought was a bit high but thought it'd be worth it for what was supposed to be a nice, comfortable motel. I noted on the reservation that we had 2 dogs so there'd be no confusion. When we got to the motel we were given the keys to a room that hadn't been cleaned and we had to ask to change rooms. The next room at least had been cleaned but the mattress was so uncomfortable that it was like sleeping on a rock. Because of that it took hours to be able to actually get any sleep. When we finally were able to get anything resembling sleep, the phone rang at 6:30am and it was the manager at the front desk. Of course he'd woken us up and we never requested a wake up call. The manager asked if my name was Mr. David and I said yes and then he hung up on me. My wife called back to see what the problem was and he told her that "they forgot to charge us a pet fee". He asked about how many dogs we had and she told him and she also asked why he called at 6:30am. He tried to tell her I had just been in the lobby getting coffee when of course I was asleep the whole time so I hadn't been anywhere. I got dressed and went to the lobby and asked about why he woke us up and he told me that he called because he was "trying to protect the breakfast". He claimed people from neighboring hotels came over frequently to steal the breakfast and they have to protect it. He said someone came into the office saying they were staying in room #108 which was the room we were put in at first before having to move to the next door room because #108 was dirty. I guess then the guy told him that he was from room #109 but couldn't tell him what his name was so he had to call our room to be sure that I wasn't being a victim of fraud? He also went on to say in addition to having problems with breakfast being stolen that they also have problems with complete strangers knocking on guests doors and harrassing them. So all things considered this place seems very unsafe going by what he said and also from the things we saw going on around the area at night. The manager was very unapologetic and when I got in touch with the general manager, the only thing he offered was 10 percent off a future stay and he was equally unapologetic and making excuses for the manager. Of course this is a family run motel where even when the family is wrong, they're right and when the customers are treated poorly, it can simply be taken away with a few nonsensical excuses. I think sleeping in your car would be better and more comfortable than sleeping in this motel. The valuable breakfast than had to be protected by the way, was a few pastries and some coffee. Typical continental breakfast, nothing fancy but I guess they find it fancy enough to give you an unwelcome wake up call over.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Kevin P, Desk clerk at Super 8 Greenville, responded to this reviewResponded May 31, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2013</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at this motel in part because of the positive reviews we had read earlier and the fact that it was pet friendly. We figured it'd be nicer than staying at Motel 6 but I doubt the experience was that much better than it would've been at the Motel 6. First of all, going into it, I knew there was a pet fee which I thought was a bit high but thought it'd be worth it for what was supposed to be a nice, comfortable motel. I noted on the reservation that we had 2 dogs so there'd be no confusion. When we got to the motel we were given the keys to a room that hadn't been cleaned and we had to ask to change rooms. The next room at least had been cleaned but the mattress was so uncomfortable that it was like sleeping on a rock. Because of that it took hours to be able to actually get any sleep. When we finally were able to get anything resembling sleep, the phone rang at 6:30am and it was the manager at the front desk. Of course he'd woken us up and we never requested a wake up call. The manager asked if my name was Mr. David and I said yes and then he hung up on me. My wife called back to see what the problem was and he told her that...My wife and I stayed at this motel in part because of the positive reviews we had read earlier and the fact that it was pet friendly. We figured it'd be nicer than staying at Motel 6 but I doubt the experience was that much better than it would've been at the Motel 6. First of all, going into it, I knew there was a pet fee which I thought was a bit high but thought it'd be worth it for what was supposed to be a nice, comfortable motel. I noted on the reservation that we had 2 dogs so there'd be no confusion. When we got to the motel we were given the keys to a room that hadn't been cleaned and we had to ask to change rooms. The next room at least had been cleaned but the mattress was so uncomfortable that it was like sleeping on a rock. Because of that it took hours to be able to actually get any sleep. When we finally were able to get anything resembling sleep, the phone rang at 6:30am and it was the manager at the front desk. Of course he'd woken us up and we never requested a wake up call. The manager asked if my name was Mr. David and I said yes and then he hung up on me. My wife called back to see what the problem was and he told her that "they forgot to charge us a pet fee". He asked about how many dogs we had and she told him and she also asked why he called at 6:30am. He tried to tell her I had just been in the lobby getting coffee when of course I was asleep the whole time so I hadn't been anywhere. I got dressed and went to the lobby and asked about why he woke us up and he told me that he called because he was "trying to protect the breakfast". He claimed people from neighboring hotels came over frequently to steal the breakfast and they have to protect it. He said someone came into the office saying they were staying in room #108 which was the room we were put in at first before having to move to the next door room because #108 was dirty. I guess then the guy told him that he was from room #109 but couldn't tell him what his name was so he had to call our room to be sure that I wasn't being a victim of fraud? He also went on to say in addition to having problems with breakfast being stolen that they also have problems with complete strangers knocking on guests doors and harrassing them. So all things considered this place seems very unsafe going by what he said and also from the things we saw going on around the area at night. The manager was very unapologetic and when I got in touch with the general manager, the only thing he offered was 10 percent off a future stay and he was equally unapologetic and making excuses for the manager. Of course this is a family run motel where even when the family is wrong, they're right and when the customers are treated poorly, it can simply be taken away with a few nonsensical excuses. I think sleeping in your car would be better and more comfortable than sleeping in this motel. The valuable breakfast than had to be protected by the way, was a few pastries and some coffee. Typical continental breakfast, nothing fancy but I guess they find it fancy enough to give you an unwelcome wake up call over.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r158652928-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>158652928</t>
+  </si>
+  <si>
+    <t>04/24/2013</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Very good! Really enjoyed the hotel! Great staff room was clean. Quite and very easy access.thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Kevin P, Desk Clerk at Super 8 Greenville, responded to this reviewResponded May 31, 2013</t>
+  </si>
+  <si>
+    <t>Very good! Really enjoyed the hotel! Great staff room was clean. Quite and very easy access.thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r153340471-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>153340471</t>
+  </si>
+  <si>
+    <t>02/27/2013</t>
+  </si>
+  <si>
+    <t>Once again Super 8 is Super Great and the staff is Super Nice</t>
+  </si>
+  <si>
+    <t>The king room was spacious with a very comfortable bed. The room came with a microwave, mini-fridge, coffee maker, ironing board, hair dryer, cable TV,and free internet. The staff is very friendly and accomodating. There's a very good authentic Mexican restaurant next door as well as two fast food across the street. There are also two convenience stores and a car wash. You can take your chances on one of the questionable hotels in the area or stay at a clean comfortable one like this and not take any hitchhikers when you leave.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Kevin P, Manager at Super 8 Greenville, responded to this reviewResponded March 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2013</t>
+  </si>
+  <si>
+    <t>The king room was spacious with a very comfortable bed. The room came with a microwave, mini-fridge, coffee maker, ironing board, hair dryer, cable TV,and free internet. The staff is very friendly and accomodating. There's a very good authentic Mexican restaurant next door as well as two fast food across the street. There are also two convenience stores and a car wash. You can take your chances on one of the questionable hotels in the area or stay at a clean comfortable one like this and not take any hitchhikers when you leave.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r146404335-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>146404335</t>
+  </si>
+  <si>
+    <t>11/28/2012</t>
+  </si>
+  <si>
+    <t>our stay</t>
+  </si>
+  <si>
+    <t>Hotel is a bit hard to get to. Room doors are outside. Room had frig, microwave, hair dryer, shampoo. Bed was on the hard side for me, but husband thought it was ok. Room needs a little updateing, as some of the furnishing are dated. Room did have a clean smell when we entered. There were some dirty hand prints on frig and bathroom door that should have been wiped down. Some of the towels and washrags were stained. We just didn't use the stained ones. Our stay was not bad just not the best. There is also a Mcdonalds and Arbys right across the street. We did not try the breakfast. The main reason we stayed here is that they have smoking rooms and it's getting very had to find a smoking room in the newer hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Kevin P, Desk clerk at Super 8 Greenville, responded to this reviewResponded April 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2013</t>
+  </si>
+  <si>
+    <t>Hotel is a bit hard to get to. Room doors are outside. Room had frig, microwave, hair dryer, shampoo. Bed was on the hard side for me, but husband thought it was ok. Room needs a little updateing, as some of the furnishing are dated. Room did have a clean smell when we entered. There were some dirty hand prints on frig and bathroom door that should have been wiped down. Some of the towels and washrags were stained. We just didn't use the stained ones. Our stay was not bad just not the best. There is also a Mcdonalds and Arbys right across the street. We did not try the breakfast. The main reason we stayed here is that they have smoking rooms and it's getting very had to find a smoking room in the newer hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r144096070-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>144096070</t>
+  </si>
+  <si>
+    <t>10/30/2012</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r136729322-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>136729322</t>
+  </si>
+  <si>
+    <t>08/09/2012</t>
+  </si>
+  <si>
+    <t>A great stay!</t>
+  </si>
+  <si>
+    <t>This was and all around great stay for me.  Clean rooms, friendly staff, and quiet. I cant complain and would recommend this to anyone. The breakfast wasnt much but they had enough to keep me happy. The price of the room isnt bad either.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kevin P, Desk Clerk at Super 8 Greenville, responded to this reviewResponded March 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2013</t>
+  </si>
+  <si>
+    <t>This was and all around great stay for me.  Clean rooms, friendly staff, and quiet. I cant complain and would recommend this to anyone. The breakfast wasnt much but they had enough to keep me happy. The price of the room isnt bad either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r135565329-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>135565329</t>
+  </si>
+  <si>
+    <t>07/27/2012</t>
+  </si>
+  <si>
+    <t>Clean Rooms - Nothing Fancy, But Nice for a Place to Sleep</t>
+  </si>
+  <si>
+    <t>Stayed at the Super 8 in Greenville, TX last weekend.  Good place, seemed like older, but recently remodeled clean rooms, and pretty good deal if you just need a spot to sleep.  Location is kind of odd - there is a car wash that faces the south side wall of rooms - pretty close to where you are sleeping, but all-in-all, definitely would recommend this place for a spot to stop and sleep while taking a road trip.  Wouldn't want to spend a week there or anything, but it's definitely OK.  And believe me, if it's not clean, I WILL NOT STAY!  The manager was nice to my husband, but we didn't have any issues, so he probably had no reason not to be nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Stayed at the Super 8 in Greenville, TX last weekend.  Good place, seemed like older, but recently remodeled clean rooms, and pretty good deal if you just need a spot to sleep.  Location is kind of odd - there is a car wash that faces the south side wall of rooms - pretty close to where you are sleeping, but all-in-all, definitely would recommend this place for a spot to stop and sleep while taking a road trip.  Wouldn't want to spend a week there or anything, but it's definitely OK.  And believe me, if it's not clean, I WILL NOT STAY!  The manager was nice to my husband, but we didn't have any issues, so he probably had no reason not to be nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r123716679-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>123716679</t>
+  </si>
+  <si>
+    <t>01/27/2012</t>
+  </si>
+  <si>
+    <t>Oh No!</t>
+  </si>
+  <si>
+    <t>When I checked in for a business trip I thought it was going to be a perfect stay. Kevin was awesome in the beginning, but when they drove me crazy everyday to "swipe" my credit card. I was in the middle of a conference call and they ACTUALLY knocked on my door and wouldn't leave until they "swiped" my card again. Any hotel that does that to a guest that is staying for a undetermined length of time and paying with a credit card, should not be hassled in that manner. Kevin became irate and I checked out. There was a broken beer bottle outside my door that was there for three days until I called. THEN I found a pair of panties that weren't mine when I was moving!  I'd rather sleep in my car-thank youMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>When I checked in for a business trip I thought it was going to be a perfect stay. Kevin was awesome in the beginning, but when they drove me crazy everyday to "swipe" my credit card. I was in the middle of a conference call and they ACTUALLY knocked on my door and wouldn't leave until they "swiped" my card again. Any hotel that does that to a guest that is staying for a undetermined length of time and paying with a credit card, should not be hassled in that manner. Kevin became irate and I checked out. There was a broken beer bottle outside my door that was there for three days until I called. THEN I found a pair of panties that weren't mine when I was moving!  I'd rather sleep in my car-thank youMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r115171525-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>115171525</t>
+  </si>
+  <si>
+    <t>07/08/2011</t>
+  </si>
+  <si>
+    <t>best show in town</t>
+  </si>
+  <si>
+    <t>The room was fine.  Breakfast meager and uninteresting.  TV selection is adequate.  But the real attraction in Kevin the manager.  His temper-tantrum display was a marvel to behold.   You go Kevin.  No I mean it.  GO!</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r105468448-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>105468448</t>
+  </si>
+  <si>
+    <t>04/25/2011</t>
+  </si>
+  <si>
+    <t>good stay for the $</t>
+  </si>
+  <si>
+    <t>We were very pleased with our large, comfortable, very clean room.  The ceiling fan was a bonus and the fridge and microwave were handy.  The staff was very friendly and helpful and suggested a great Mexican restaurant across the highway.  Breakfast was minimal but plentiful and eating area was very clean.  If you join (for free) Wyndham Rewards and book online you will save $'s on the room rates plus accumulate points toward a free nights stay.  We will stay here again and will recommend it.</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r65172248-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>65172248</t>
+  </si>
+  <si>
+    <t>05/24/2010</t>
+  </si>
+  <si>
+    <t>Ok, but not worth $80</t>
+  </si>
+  <si>
+    <t>No offense to the ppl in the last review, but if this is one of the nicest hotels you've stayed in touring the US, you must be on a very small budget.  We had to go to a funeral in the area early in the morning and only stayed one night.  For a Super 8, it's old (and one of those w/ the doors on the outside).  Walls are thin, beds so so.  Breakfast is the typical high-fructose laden wafflles, cereal, juice.  Nothing special  And for Greenville, I'm not sure how they get away w/ charging $80 a night.  They did honor my AAA rate, but I have stayed in much better hotels for and $80 rate.  (looks like the entire area has high rates for some reason). Oh well.  if you just need  a place to crash, I guess it's alright.  The people were nice (excpet when we checked in, the lady at the front desk would not tell me what the walk in rate was since i had booked on the internet- whatever, as my AAA rate was cheaper, but just odd that she wouldn't answer my question)  Place smells and looks old.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>No offense to the ppl in the last review, but if this is one of the nicest hotels you've stayed in touring the US, you must be on a very small budget.  We had to go to a funeral in the area early in the morning and only stayed one night.  For a Super 8, it's old (and one of those w/ the doors on the outside).  Walls are thin, beds so so.  Breakfast is the typical high-fructose laden wafflles, cereal, juice.  Nothing special  And for Greenville, I'm not sure how they get away w/ charging $80 a night.  They did honor my AAA rate, but I have stayed in much better hotels for and $80 rate.  (looks like the entire area has high rates for some reason). Oh well.  if you just need  a place to crash, I guess it's alright.  The people were nice (excpet when we checked in, the lady at the front desk would not tell me what the walk in rate was since i had booked on the internet- whatever, as my AAA rate was cheaper, but just odd that she wouldn't answer my question)  Place smells and looks old.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r19775291-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>19775291</t>
+  </si>
+  <si>
+    <t>09/04/2008</t>
+  </si>
+  <si>
+    <t>2008 review NEW Policies! For this Motel !!!!!</t>
+  </si>
+  <si>
+    <t>Stopped in to see if they had a room (smoking) yes they had one.
+From there it just shocked me!
+If you want to stay using Rewards card they WILL NOT HONOR AARP/AAA Discounts!!!!!!!!!!!!
+G, sure am glad I call rewards people as this issue (aaa/aarp) is in thier contract to HONOR Discounts!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!
+So I went to me truck and called rewards 800# to see what could be done, got reservation with discount.  They honored it "...this time, but not twice" is what they told me.
+I had stayed at Wichita, KS for 5.5 weeks with not problem!!
+But tried to fax from there and it did not go through, so I stopped @
+Blackwell, OK ( Wonderfull people!!). 
+They (Blackwell, OK) resent it but was smeared at other end ( but mom's fax has been working all day without a problem) so when I got to GREENVILLE TX SUPER 8 I needed to sent it AGAIN, BUT they charge $2.00 a sheet, OK fine paid it, sent it ,said it was sent "OK" BUT 2nd Page DID NOT SHOW UP!!!!!!!!!!!!!!
+Yes, I called Customer Service (on Hold for 35 min) and OOPS sorry, they will not resent 2nd page will have to Pay AGAIN!!!
+Customer Service asked me "if I had drove there, could I drive to another area and find a place ......." Please, what is WRONG with those people I just told them I drove there fro...Stopped in to see if they had a room (smoking) yes they had one.From there it just shocked me!If you want to stay using Rewards card they WILL NOT HONOR AARP/AAA Discounts!!!!!!!!!!!!G, sure am glad I call rewards people as this issue (aaa/aarp) is in thier contract to HONOR Discounts!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!So I went to me truck and called rewards 800# to see what could be done, got reservation with discount.  They honored it "...this time, but not twice" is what they told me.I had stayed at Wichita, KS for 5.5 weeks with not problem!!But tried to fax from there and it did not go through, so I stopped @Blackwell, OK ( Wonderfull people!!). They (Blackwell, OK) resent it but was smeared at other end ( but mom's fax has been working all day without a problem) so when I got to GREENVILLE TX SUPER 8 I needed to sent it AGAIN, BUT they charge $2.00 a sheet, OK fine paid it, sent it ,said it was sent "OK" BUT 2nd Page DID NOT SHOW UP!!!!!!!!!!!!!!Yes, I called Customer Service (on Hold for 35 min) and OOPS sorry, they will not resent 2nd page will have to Pay AGAIN!!!Customer Service asked me "if I had drove there, could I drive to another area and find a place ......." Please, what is WRONG with those people I just told them I drove there fro Wichita .....?????for $79.00 (Regular RATE) you would Think they would resend it.Well so I tried to get Coffee, Had to wait becauce she did not believe there was not any there had to go look for herself when I told she.G, sure am glad I call rewards people as this issue (aaa/aarp) is in thier contract to HONOR!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2008</t>
+  </si>
+  <si>
+    <t>Stopped in to see if they had a room (smoking) yes they had one.
+From there it just shocked me!
+If you want to stay using Rewards card they WILL NOT HONOR AARP/AAA Discounts!!!!!!!!!!!!
+G, sure am glad I call rewards people as this issue (aaa/aarp) is in thier contract to HONOR Discounts!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!
+So I went to me truck and called rewards 800# to see what could be done, got reservation with discount.  They honored it "...this time, but not twice" is what they told me.
+I had stayed at Wichita, KS for 5.5 weeks with not problem!!
+But tried to fax from there and it did not go through, so I stopped @
+Blackwell, OK ( Wonderfull people!!). 
+They (Blackwell, OK) resent it but was smeared at other end ( but mom's fax has been working all day without a problem) so when I got to GREENVILLE TX SUPER 8 I needed to sent it AGAIN, BUT they charge $2.00 a sheet, OK fine paid it, sent it ,said it was sent "OK" BUT 2nd Page DID NOT SHOW UP!!!!!!!!!!!!!!
+Yes, I called Customer Service (on Hold for 35 min) and OOPS sorry, they will not resent 2nd page will have to Pay AGAIN!!!
+Customer Service asked me "if I had drove there, could I drive to another area and find a place ......." Please, what is WRONG with those people I just told them I drove there fro...Stopped in to see if they had a room (smoking) yes they had one.From there it just shocked me!If you want to stay using Rewards card they WILL NOT HONOR AARP/AAA Discounts!!!!!!!!!!!!G, sure am glad I call rewards people as this issue (aaa/aarp) is in thier contract to HONOR Discounts!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!So I went to me truck and called rewards 800# to see what could be done, got reservation with discount.  They honored it "...this time, but not twice" is what they told me.I had stayed at Wichita, KS for 5.5 weeks with not problem!!But tried to fax from there and it did not go through, so I stopped @Blackwell, OK ( Wonderfull people!!). They (Blackwell, OK) resent it but was smeared at other end ( but mom's fax has been working all day without a problem) so when I got to GREENVILLE TX SUPER 8 I needed to sent it AGAIN, BUT they charge $2.00 a sheet, OK fine paid it, sent it ,said it was sent "OK" BUT 2nd Page DID NOT SHOW UP!!!!!!!!!!!!!!Yes, I called Customer Service (on Hold for 35 min) and OOPS sorry, they will not resent 2nd page will have to Pay AGAIN!!!Customer Service asked me "if I had drove there, could I drive to another area and find a place ......." Please, what is WRONG with those people I just told them I drove there fro Wichita .....?????for $79.00 (Regular RATE) you would Think they would resend it.Well so I tried to get Coffee, Had to wait becauce she did not believe there was not any there had to go look for herself when I told she.G, sure am glad I call rewards people as this issue (aaa/aarp) is in thier contract to HONOR!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r12062307-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>12062307</t>
+  </si>
+  <si>
+    <t>12/29/2007</t>
+  </si>
+  <si>
+    <t>pleasant surprise</t>
+  </si>
+  <si>
+    <t>I was travelling and just needed a place for my son and I to sleep. I was a bit hesitant to stay but the price and location were right.  The room was clean and had all the necessary gadgets-microwave hair dryer etc.  The bed was very comfortable and I got a great nights sleep,  The free breakfast was fresh and the waffles came out perfect.  Overall a good place to stay while travelling.</t>
+  </si>
+  <si>
+    <t>December 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r1542411-Super_8_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>1542411</t>
+  </si>
+  <si>
+    <t>01/07/2004</t>
+  </si>
+  <si>
+    <t>Very unsatisfied</t>
+  </si>
+  <si>
+    <t>To make a long story short my 10 yr old son and I were traveling to Arlington Texas, We had car trouble. We had to spend two nights in Greenville TX. While our car was being repaired. I spent the first night at the Economy Inn the service was wonderful, but the rooms were not very comfortable. The following night we chose to stay at Super 8 due to a much more pleasant atmosphere. I explained our situation to the desk clerk, I was low on cash, and traveling by foot due to car trouble. Fortunately we had enough to stay the night. My son and I went to the ice machine for a bucket of ice to take to the room. At the ice machine he was exposed to green -- toy. He was very curious. As we were returning to our room, I let the cleaning lady know this needed to be removed immediatly! The next morning this was still there!!!!!!!!!!!!!!!!! I received a call from the garage, he was unable to get all the parts needed to repair the car. It would be monday before he was able to fix it. I did not have enough cash to stay another night, so I called family members for help. My brother was on his way to pick us up, it would take him 4 1/2 hours to get to the hotel, however check out is at 11 am...To make a long story short my 10 yr old son and I were traveling to Arlington Texas, We had car trouble. We had to spend two nights in Greenville TX. While our car was being repaired. I spent the first night at the Economy Inn the service was wonderful, but the rooms were not very comfortable. The following night we chose to stay at Super 8 due to a much more pleasant atmosphere. I explained our situation to the desk clerk, I was low on cash, and traveling by foot due to car trouble. Fortunately we had enough to stay the night. My son and I went to the ice machine for a bucket of ice to take to the room. At the ice machine he was exposed to green -- toy. He was very curious. As we were returning to our room, I let the cleaning lady know this needed to be removed immediatly! The next morning this was still there!!!!!!!!!!!!!!!!! I received a call from the garage, he was unable to get all the parts needed to repair the car. It would be monday before he was able to fix it. I did not have enough cash to stay another night, so I called family members for help. My brother was on his way to pick us up, it would take him 4 1/2 hours to get to the hotel, however check out is at 11 am and he would not get there until 2pm. I once again explained my situation , offered the last $20.00 in cash I had to wait in the room for the extra hrs. I was asked to leave the room. It was rainy and cold, we were not dressed to be out in this kind of weather. I will NEVER stay in a Super 8 Motel, nor will I recommend one to anyone at all!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>To make a long story short my 10 yr old son and I were traveling to Arlington Texas, We had car trouble. We had to spend two nights in Greenville TX. While our car was being repaired. I spent the first night at the Economy Inn the service was wonderful, but the rooms were not very comfortable. The following night we chose to stay at Super 8 due to a much more pleasant atmosphere. I explained our situation to the desk clerk, I was low on cash, and traveling by foot due to car trouble. Fortunately we had enough to stay the night. My son and I went to the ice machine for a bucket of ice to take to the room. At the ice machine he was exposed to green -- toy. He was very curious. As we were returning to our room, I let the cleaning lady know this needed to be removed immediatly! The next morning this was still there!!!!!!!!!!!!!!!!! I received a call from the garage, he was unable to get all the parts needed to repair the car. It would be monday before he was able to fix it. I did not have enough cash to stay another night, so I called family members for help. My brother was on his way to pick us up, it would take him 4 1/2 hours to get to the hotel, however check out is at 11 am...To make a long story short my 10 yr old son and I were traveling to Arlington Texas, We had car trouble. We had to spend two nights in Greenville TX. While our car was being repaired. I spent the first night at the Economy Inn the service was wonderful, but the rooms were not very comfortable. The following night we chose to stay at Super 8 due to a much more pleasant atmosphere. I explained our situation to the desk clerk, I was low on cash, and traveling by foot due to car trouble. Fortunately we had enough to stay the night. My son and I went to the ice machine for a bucket of ice to take to the room. At the ice machine he was exposed to green -- toy. He was very curious. As we were returning to our room, I let the cleaning lady know this needed to be removed immediatly! The next morning this was still there!!!!!!!!!!!!!!!!! I received a call from the garage, he was unable to get all the parts needed to repair the car. It would be monday before he was able to fix it. I did not have enough cash to stay another night, so I called family members for help. My brother was on his way to pick us up, it would take him 4 1/2 hours to get to the hotel, however check out is at 11 am and he would not get there until 2pm. I once again explained my situation , offered the last $20.00 in cash I had to wait in the room for the extra hrs. I was asked to leave the room. It was rainy and cold, we were not dressed to be out in this kind of weather. I will NEVER stay in a Super 8 Motel, nor will I recommend one to anyone at all!!!!!More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1904,4010 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>115</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" t="s">
+        <v>133</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>134</v>
+      </c>
+      <c r="X11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>132</v>
+      </c>
+      <c r="O12" t="s">
+        <v>142</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>143</v>
+      </c>
+      <c r="X12" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" t="s">
+        <v>149</v>
+      </c>
+      <c r="L13" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13" t="s">
+        <v>133</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>151</v>
+      </c>
+      <c r="X13" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" t="s">
+        <v>156</v>
+      </c>
+      <c r="K14" t="s">
+        <v>157</v>
+      </c>
+      <c r="L14" t="s">
+        <v>158</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>159</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>160</v>
+      </c>
+      <c r="X14" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>164</v>
+      </c>
+      <c r="J15" t="s">
+        <v>165</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>159</v>
+      </c>
+      <c r="O15" t="s">
+        <v>142</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" t="s">
+        <v>169</v>
+      </c>
+      <c r="L16" t="s">
+        <v>170</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>159</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>171</v>
+      </c>
+      <c r="X16" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J17" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" t="s">
+        <v>177</v>
+      </c>
+      <c r="L17" t="s">
+        <v>178</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>159</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>179</v>
+      </c>
+      <c r="X17" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>183</v>
+      </c>
+      <c r="J18" t="s">
+        <v>184</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s">
+        <v>114</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>185</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>186</v>
+      </c>
+      <c r="X18" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>189</v>
+      </c>
+      <c r="J19" t="s">
+        <v>190</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>185</v>
+      </c>
+      <c r="O19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>192</v>
+      </c>
+      <c r="J20" t="s">
+        <v>193</v>
+      </c>
+      <c r="K20" t="s">
+        <v>194</v>
+      </c>
+      <c r="L20" t="s">
+        <v>195</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>196</v>
+      </c>
+      <c r="O20" t="s">
+        <v>81</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>198</v>
+      </c>
+      <c r="J21" t="s">
+        <v>199</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>200</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>201</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>202</v>
+      </c>
+      <c r="J22" t="s">
+        <v>203</v>
+      </c>
+      <c r="K22" t="s">
+        <v>204</v>
+      </c>
+      <c r="L22" t="s">
+        <v>205</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>206</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>208</v>
+      </c>
+      <c r="J23" t="s">
+        <v>209</v>
+      </c>
+      <c r="K23" t="s">
+        <v>210</v>
+      </c>
+      <c r="L23" t="s">
+        <v>211</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>206</v>
+      </c>
+      <c r="O23" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>213</v>
+      </c>
+      <c r="J24" t="s">
+        <v>214</v>
+      </c>
+      <c r="K24" t="s">
+        <v>215</v>
+      </c>
+      <c r="L24" t="s">
+        <v>216</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>206</v>
+      </c>
+      <c r="O24" t="s">
+        <v>142</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>218</v>
+      </c>
+      <c r="J25" t="s">
+        <v>219</v>
+      </c>
+      <c r="K25" t="s">
+        <v>220</v>
+      </c>
+      <c r="L25" t="s">
+        <v>221</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>222</v>
+      </c>
+      <c r="O25" t="s">
+        <v>142</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>223</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>224</v>
+      </c>
+      <c r="J26" t="s">
+        <v>225</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s">
+        <v>114</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>226</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>227</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>228</v>
+      </c>
+      <c r="J27" t="s">
+        <v>229</v>
+      </c>
+      <c r="K27" t="s">
+        <v>230</v>
+      </c>
+      <c r="L27" t="s">
+        <v>231</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>232</v>
+      </c>
+      <c r="O27" t="s">
+        <v>142</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>234</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>235</v>
+      </c>
+      <c r="J28" t="s">
+        <v>236</v>
+      </c>
+      <c r="K28" t="s">
+        <v>237</v>
+      </c>
+      <c r="L28" t="s">
+        <v>238</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>239</v>
+      </c>
+      <c r="O28" t="s">
+        <v>71</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>240</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>241</v>
+      </c>
+      <c r="J29" t="s">
+        <v>242</v>
+      </c>
+      <c r="K29" t="s">
+        <v>243</v>
+      </c>
+      <c r="L29" t="s">
+        <v>244</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>239</v>
+      </c>
+      <c r="O29" t="s">
+        <v>142</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>245</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>246</v>
+      </c>
+      <c r="J30" t="s">
+        <v>247</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>239</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>248</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>249</v>
+      </c>
+      <c r="J31" t="s">
+        <v>250</v>
+      </c>
+      <c r="K31" t="s">
+        <v>251</v>
+      </c>
+      <c r="L31" t="s">
+        <v>252</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>253</v>
+      </c>
+      <c r="O31" t="s">
+        <v>142</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>255</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>256</v>
+      </c>
+      <c r="J32" t="s">
+        <v>257</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s">
+        <v>114</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>258</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>259</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>260</v>
+      </c>
+      <c r="J33" t="s">
+        <v>261</v>
+      </c>
+      <c r="K33" t="s">
+        <v>262</v>
+      </c>
+      <c r="L33" t="s">
+        <v>263</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>264</v>
+      </c>
+      <c r="O33" t="s">
+        <v>142</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>266</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>267</v>
+      </c>
+      <c r="J34" t="s">
+        <v>268</v>
+      </c>
+      <c r="K34" t="s">
+        <v>269</v>
+      </c>
+      <c r="L34" t="s">
+        <v>270</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>271</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>273</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>274</v>
+      </c>
+      <c r="J35" t="s">
+        <v>275</v>
+      </c>
+      <c r="K35" t="s">
+        <v>276</v>
+      </c>
+      <c r="L35" t="s">
+        <v>277</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>278</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>279</v>
+      </c>
+      <c r="X35" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>282</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>283</v>
+      </c>
+      <c r="J36" t="s">
+        <v>284</v>
+      </c>
+      <c r="K36" t="s">
+        <v>285</v>
+      </c>
+      <c r="L36" t="s">
+        <v>286</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>278</v>
+      </c>
+      <c r="O36" t="s">
+        <v>81</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>287</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>288</v>
+      </c>
+      <c r="J37" t="s">
+        <v>289</v>
+      </c>
+      <c r="K37" t="s">
+        <v>290</v>
+      </c>
+      <c r="L37" t="s">
+        <v>291</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>292</v>
+      </c>
+      <c r="O37" t="s">
+        <v>142</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>293</v>
+      </c>
+      <c r="X37" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>296</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>297</v>
+      </c>
+      <c r="J38" t="s">
+        <v>298</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s">
+        <v>114</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>299</v>
+      </c>
+      <c r="O38" t="s">
+        <v>142</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>300</v>
+      </c>
+      <c r="X38" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>303</v>
+      </c>
+      <c r="J39" t="s">
+        <v>304</v>
+      </c>
+      <c r="K39" t="s">
+        <v>305</v>
+      </c>
+      <c r="L39" t="s">
+        <v>306</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>307</v>
+      </c>
+      <c r="X39" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>310</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>311</v>
+      </c>
+      <c r="J40" t="s">
+        <v>312</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s">
+        <v>114</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>313</v>
+      </c>
+      <c r="O40" t="s">
+        <v>142</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>314</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>315</v>
+      </c>
+      <c r="J41" t="s">
+        <v>316</v>
+      </c>
+      <c r="K41" t="s">
+        <v>317</v>
+      </c>
+      <c r="L41" t="s">
+        <v>318</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>319</v>
+      </c>
+      <c r="O41" t="s">
+        <v>71</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>320</v>
+      </c>
+      <c r="X41" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>323</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>324</v>
+      </c>
+      <c r="J42" t="s">
+        <v>325</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>326</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>327</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>328</v>
+      </c>
+      <c r="J43" t="s">
+        <v>329</v>
+      </c>
+      <c r="K43" t="s">
+        <v>330</v>
+      </c>
+      <c r="L43" t="s">
+        <v>331</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>332</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>333</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>334</v>
+      </c>
+      <c r="J44" t="s">
+        <v>335</v>
+      </c>
+      <c r="K44" t="s">
+        <v>336</v>
+      </c>
+      <c r="L44" t="s">
+        <v>337</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>338</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>339</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>340</v>
+      </c>
+      <c r="J45" t="s">
+        <v>341</v>
+      </c>
+      <c r="K45" t="s">
+        <v>342</v>
+      </c>
+      <c r="L45" t="s">
+        <v>343</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>344</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>345</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>346</v>
+      </c>
+      <c r="J46" t="s">
+        <v>347</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s"/>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>348</v>
+      </c>
+      <c r="O46" t="s">
+        <v>71</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>349</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>350</v>
+      </c>
+      <c r="J47" t="s">
+        <v>351</v>
+      </c>
+      <c r="K47" t="s">
+        <v>352</v>
+      </c>
+      <c r="L47" t="s">
+        <v>353</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>354</v>
+      </c>
+      <c r="X47" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>357</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>358</v>
+      </c>
+      <c r="J48" t="s">
+        <v>359</v>
+      </c>
+      <c r="K48" t="s">
+        <v>360</v>
+      </c>
+      <c r="L48" t="s">
+        <v>361</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>362</v>
+      </c>
+      <c r="O48" t="s">
+        <v>71</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>363</v>
+      </c>
+      <c r="X48" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>366</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>367</v>
+      </c>
+      <c r="J49" t="s">
+        <v>368</v>
+      </c>
+      <c r="K49" t="s">
+        <v>369</v>
+      </c>
+      <c r="L49" t="s">
+        <v>370</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>371</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>372</v>
+      </c>
+      <c r="X49" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>374</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>375</v>
+      </c>
+      <c r="J50" t="s">
+        <v>376</v>
+      </c>
+      <c r="K50" t="s">
+        <v>377</v>
+      </c>
+      <c r="L50" t="s">
+        <v>378</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>379</v>
+      </c>
+      <c r="O50" t="s">
+        <v>142</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>380</v>
+      </c>
+      <c r="X50" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>383</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>384</v>
+      </c>
+      <c r="J51" t="s">
+        <v>385</v>
+      </c>
+      <c r="K51" t="s">
+        <v>386</v>
+      </c>
+      <c r="L51" t="s">
+        <v>387</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>388</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>389</v>
+      </c>
+      <c r="X51" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>392</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>393</v>
+      </c>
+      <c r="J52" t="s">
+        <v>394</v>
+      </c>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s"/>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>395</v>
+      </c>
+      <c r="O52" t="s">
+        <v>133</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>396</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>397</v>
+      </c>
+      <c r="J53" t="s">
+        <v>398</v>
+      </c>
+      <c r="K53" t="s">
+        <v>399</v>
+      </c>
+      <c r="L53" t="s">
+        <v>400</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>401</v>
+      </c>
+      <c r="X53" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>404</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>405</v>
+      </c>
+      <c r="J54" t="s">
+        <v>406</v>
+      </c>
+      <c r="K54" t="s">
+        <v>407</v>
+      </c>
+      <c r="L54" t="s">
+        <v>408</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>409</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>411</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>412</v>
+      </c>
+      <c r="J55" t="s">
+        <v>413</v>
+      </c>
+      <c r="K55" t="s">
+        <v>414</v>
+      </c>
+      <c r="L55" t="s">
+        <v>415</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>416</v>
+      </c>
+      <c r="O55" t="s">
+        <v>142</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>372</v>
+      </c>
+      <c r="X55" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>418</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>419</v>
+      </c>
+      <c r="J56" t="s">
+        <v>420</v>
+      </c>
+      <c r="K56" t="s">
+        <v>421</v>
+      </c>
+      <c r="L56" t="s">
+        <v>422</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>423</v>
+      </c>
+      <c r="O56" t="s">
+        <v>81</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>424</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>425</v>
+      </c>
+      <c r="J57" t="s">
+        <v>426</v>
+      </c>
+      <c r="K57" t="s">
+        <v>427</v>
+      </c>
+      <c r="L57" t="s">
+        <v>428</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>429</v>
+      </c>
+      <c r="O57" t="s">
+        <v>71</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>430</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>431</v>
+      </c>
+      <c r="J58" t="s">
+        <v>432</v>
+      </c>
+      <c r="K58" t="s">
+        <v>433</v>
+      </c>
+      <c r="L58" t="s">
+        <v>434</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>435</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="n">
+        <v>2</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>437</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>438</v>
+      </c>
+      <c r="J59" t="s">
+        <v>439</v>
+      </c>
+      <c r="K59" t="s">
+        <v>440</v>
+      </c>
+      <c r="L59" t="s">
+        <v>441</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>442</v>
+      </c>
+      <c r="O59" t="s">
+        <v>142</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>444</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>445</v>
+      </c>
+      <c r="J60" t="s">
+        <v>446</v>
+      </c>
+      <c r="K60" t="s">
+        <v>447</v>
+      </c>
+      <c r="L60" t="s">
+        <v>448</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>449</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>36186</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>450</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>451</v>
+      </c>
+      <c r="J61" t="s">
+        <v>452</v>
+      </c>
+      <c r="K61" t="s">
+        <v>453</v>
+      </c>
+      <c r="L61" t="s">
+        <v>454</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>455</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_741.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_741.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="516">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>rparki302885</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>The lobby was clean but very dated.  The staff was friendly.  The exterior of the property was filthy.  The window ledges in the room were dirty.  The mini-fridge had mold growing inside and did not cool properly.  I cleaned it and then reported to staff.  No compensation was offered.  The breakfast was ok but the room is way too small. More</t>
   </si>
   <si>
+    <t>I2854MSsherryb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r550270064-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>This place is in dire need of renovations.   It smelled like hotels from the 60s.  There were dead bugs around the baseboards.   The blanket on the bed felt like foam comparable to a foam insulation.  I think there had been a leak in the corner near the entrance door.   The carpet is black in that area and is possibly mold which could be the reason for the smell.  We most likely will not stay there again.More</t>
   </si>
   <si>
+    <t>F626LLlisad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r547095742-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>There were dead bugs. The sheets were scratchy. Very few people were there,  but they put someone right above us and they jumped around all morning.More</t>
   </si>
   <si>
+    <t>Stephen W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r525877545-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -273,6 +285,9 @@
     <t>For me Super 8 is a total gamble. Most of the time a disappointment and occasionally a nice one. This one was the severely outdated model which should have been charging $ 39,95 per night at best. And you wonder why I seldom stay at these flea bags.More</t>
   </si>
   <si>
+    <t>A2381SGlynng</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r523815393-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -297,6 +312,9 @@
     <t>nice hotel  wish it had indoor entrances  had to go outside and walk around building to get to lobby and  breakfast More</t>
   </si>
   <si>
+    <t>Auntpony</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r515555909-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -324,6 +342,9 @@
     <t>Need a place to stay after a family party. I found this motel on TripAdvisor web site. The room was clean. Smelled fine. Price was competitive. Greeting staff was friendly. Breakfast was good. The only thing that I find fault with is trying to find it. Looked it up on my GPS. It showed it in the wrong place. The address on website was confusing. It may not be their fault. In all it was a good place for the price. It's not a 5 star hotel but I didn't pay for a 5 star hotel. More</t>
   </si>
   <si>
+    <t>lenziem</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r504006888-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -351,6 +372,9 @@
     <t>Meets expectations except the hot tub they advertise is small and was not clean.  They are renovating, so there are workers and loud noises of tools and banging until the evening.  Breakfast was mediocre and light.More</t>
   </si>
   <si>
+    <t>Richard J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r497475679-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -375,6 +399,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>lajenar2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r496910773-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -399,6 +426,9 @@
     <t>Everything was great except for the water temperature. It didn't stay warm very long. I did report it upon my leaving,  and the manager explained why.More</t>
   </si>
   <si>
+    <t>852skylarw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r487715263-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -429,6 +459,9 @@
     <t>I booked our room on booking.com for $89 when I checked in I was given a bill for $103. The lady was not pleasant to work with we had to wait until the owners were present to get the price we originally booked on booking.com they claimed the computer wasn't working (after I showed her my booking information). She charged us the $103 and refunded us the other half, but days after my card was charged again and we had to contact them to get our refund. Room had a odd smell, surroundings were creepy cops showed up at one of the rooms. People were walking around the parking lot late at night digging through the trash and wondering the parking lot. More</t>
   </si>
   <si>
+    <t>Don T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r484995686-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -456,6 +489,9 @@
     <t>I enjoyed my stay. The room was very good clean and everything was in-working order. The Super 8 breakfast was good.More</t>
   </si>
   <si>
+    <t>David B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r484802970-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -480,6 +516,9 @@
     <t>The room was updated with nice tv, granite bathroom vanity, etc. 2 complaints; the bedspread and blanket were clearly not washed after each use as ours had some white spots on them (God only knows what they were but I have a guess). Not a big deal since I generally strip the bedspread and blanket off before I get in bed. The breakfast was very limited. The fruit offering contained 1 (yes, one) banana for everyone and signs for cinnamon rolls all over but no rolls. The check in was kind of weird. The man at the desk had my website reservation with all my information and still asked me to fill out a old style NCR paper registration form to "help him out". I was a little concerned with my personal data being on a piece of paper that who knows where it will end up. I figured the Russians already had all my data so it probably wasn't a big deal. Fine for a quick night's stay, but I would not recommend it for any longer. More</t>
   </si>
   <si>
+    <t>X5568XMjohnl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r479518946-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -507,6 +546,9 @@
     <t>Our family really enjoyed this Hotel and it's location,  we would highly recommend if you are stopping in Greenville, Texas this Hotel would be a Great choice. Close to everything restaurants and shopping, fuel and the staff will do anything possible to make you stay a little bit better. Our room was very spacious and clean. Thanks John L.More</t>
   </si>
   <si>
+    <t>R3750VIlindar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r477465747-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -516,6 +558,9 @@
     <t>04/20/2017</t>
   </si>
   <si>
+    <t>E3641CLlindar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r476861667-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -540,6 +585,9 @@
     <t>No complaints except for a slight smell in room when entering, other than that, good value for a roomy place to stay.More</t>
   </si>
   <si>
+    <t>bww134</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r473580217-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -564,6 +612,9 @@
     <t>This was the worst motel I have ever stayed in! Used 15000 points on this filthy dirty place. If we had not been so tired we would not have stayed. It smelled bad and was very dirty. The only thing I can say good about it is they did not have bed bugs (I checked). Do not stay at this place, you will be sorry. Even the grounds were dirty and needed mowing badly.More</t>
   </si>
   <si>
+    <t>Richard H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r470872164-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -582,6 +633,9 @@
     <t>Responded March 31, 2017</t>
   </si>
   <si>
+    <t>Cindy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r469524382-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -591,6 +645,9 @@
     <t>03/22/2017</t>
   </si>
   <si>
+    <t>matthewtQ9562WS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r442403562-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -609,6 +666,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>dianadelar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r439009126-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -621,6 +681,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>U2559YNjasonr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r437857579-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -639,6 +702,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>Claudia A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r427940423-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -654,6 +720,9 @@
     <t>clean, comfortable well-designed room; friendly, helpful staff; short drive to downtown Greenville.</t>
   </si>
   <si>
+    <t>Juan S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r427733061-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -669,6 +738,9 @@
     <t>Quiet comfortable. Swimming pool. The room is larger than most. Comfortable sofa, king size bed, nice and firm. Large tv digital and had a great reception. The staff very friendly and helpful. Clean parking lot. Easy on and easy off IH 30 and Bus.69. Several eateries within walking distance. However easy to get to better eateries within 10 mins. Overall a good value.</t>
   </si>
   <si>
+    <t>Kimberly R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r417252563-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -687,6 +759,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>John S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r389683211-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -699,6 +774,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>glheureux56</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r382242444-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -720,6 +798,9 @@
     <t>We got this reservation the night before and I wasn't real hopeful with what the room would be like.  I couldn't have been do wrong.  There were some things that needed to be fixed, such as the small table between the queen beds (there was water damage on it).  There were also holes in the main dresser from where the former television was bolted to the counter.  But that is it on the negatives. The bed was comfortable. The price was great, I had no contact with the staff.  The room was clean.  And for the price it was pretty good size.  There was a breakfast, but I didn't partake since I needed sleep more.  I was happy with this stay.More</t>
   </si>
   <si>
+    <t>barbaralO1916VG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r379769400-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -738,6 +819,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Rusty M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r373900222-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -753,6 +837,9 @@
     <t>The desk clerk was very very friendly. He went above and beyond to help me out. I will be sure to stay here again the next time I come this way. The room was clean and comfortable. I was not disappointed.</t>
   </si>
   <si>
+    <t>travellerI1867ZB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r372697469-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -762,6 +849,9 @@
     <t>05/13/2016</t>
   </si>
   <si>
+    <t>Terry W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r364004996-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -783,6 +873,9 @@
     <t>The manager Kevin Patel was very rude and was not a very nice person at all.The rooms were not clean and the door was broken on the first one we went to.I asked for a refund , he got pissed off , started cursing . He didnt know how to give refunds and  had to call someone to teach him how. He was very rude on the phone with them too. They hung up on him. lol.Got mad at me again and started cursing at me. I called the Police on him.He finally gave me reciepts showing a refund even though he actually had charged me twice . 2 refunds , I will let my company know NOT to send us ( my 12 business partners ) back to this motel ever again.We will stay else where.More</t>
   </si>
   <si>
+    <t>677shannonk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r341292678-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -795,6 +888,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>YFNETM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r331699990-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -816,6 +912,9 @@
     <t>I stopped in Greenville for the night and needed a room. I was too tired to drive allover town so settled for Super 8. Given the Motel 6 next door was $35, I was expecting maybe $50-$55, but NOT $70. I was too tired to argue, so just got the room. The room was slightly oversized with a love seat and a partial room divider. Given what I was charged, it must have been a small suite. The room was clean, there was plenty of hot water in the shower and the bed was halfway comfortable, except for the flat pillows. I asked about someplace to eat and was told all there was, was two Mexican restaurants, Applebees, and Chili's. Cracker Barrel? Chinese buffet? Pizza? "No", I was told, none of those. So I drove to the next exit and ate at Chili's. Then I found another Mexican restaurant. The next morning, I spent a couple hours exploring town and found a Cracker Barrrel, and a Chinese buffet, and a pizza place, and lot of other restaurants. So why was I told none of those places existed?I never saw many cars at the motel, so I guess most people were smart enough to go elsewhere. I'll remember that next time.I also got to see the owner's bright, shiny BMW parked in front of the hotel. If you can afford a Beemer, you can afford better pillows.More</t>
   </si>
   <si>
+    <t>chgo919</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r283147395-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -837,6 +936,9 @@
     <t>We'd been on the road for more than 12 hours. The Motel 6 was already booked. (We discovered there was a church conference in town.) We pulled in here and discovered they were pet-friendly and decided to stay because our options were limited as we were in the middle of nowhere. I still can't believe we paid more than $100 for this dump. Room was so smelly, they plugged in an Air-Wick room fresher. So it was smelly AND over perfumed. Quite horrific. Carpets left my socks dirty. Blanket was a spongey nasty thing with cigarette burns. We were there all of six hours to sleep and promptly leave. We're on the road a lot and will never stop here again. FYI, the woman at the desk in the dirty white polo shirt should have tipped us off immediately that this was far from a great hotel. But we were so exhausted, we caved. I provide this review as a help to others.More</t>
   </si>
   <si>
+    <t>228olgab</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r237671516-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -864,6 +966,9 @@
     <t>We were very pleased with the whole experience. The room was very nice and clean. The staff was every helpful and courteous.  More</t>
   </si>
   <si>
+    <t>Sherry Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r236640080-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -879,6 +984,9 @@
     <t xml:space="preserve">Room was clean other than the carpet. My socks got filthy. I was awoken at 4 am because of the guy next door snoring so I just packed up to leave. No coffee at the office as she said was too early.   </t>
   </si>
   <si>
+    <t>Martin H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r224320953-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -906,6 +1014,9 @@
     <t>Stayed at the hotel 2 weekends a row. First weekend great. Second weekend first night fine. Room clean and nice aroma. Second night a disaster. Keys would not unlock door. Walked a long way to re set them. Opened the door to a room that had not been cleaned. Bed not made, no clean towels, soap etc. Walked another LONG way to complain. Was told the maids only made a certain amt per room and probably omitted ours. No I'm sorry, no compensation.More</t>
   </si>
   <si>
+    <t>James G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r209965136-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -924,6 +1035,9 @@
     <t>Responded August 30, 2014</t>
   </si>
   <si>
+    <t>concerned22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r208125228-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -948,6 +1062,9 @@
     <t>The hotel lobby had a strange smell now i realize it was bug spray. There was a dead roach in the bathroom the refrigerator did not work we walked to the pool it was disgusting sand inside trash in the water i would not recommend this hotel period does not even deserve a 1.  Super 8 has become super 0More</t>
   </si>
   <si>
+    <t>Fletcher A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r205534049-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -960,6 +1077,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Robert T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r196947809-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -987,6 +1107,9 @@
     <t>I don't plan to stay at this motel again.  There is no reason to lock a paying motel guest out of their room at 9:00 a.m.  Per the motel policy, checkout is anytime before 11:00 a.m.  We've stayed at this motel on 2 different occasions and this took place on both stays (on duty clerk was notified of the situation).  Breakfast items were "slim pickins" also. More</t>
   </si>
   <si>
+    <t>Marcia D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r196202074-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -999,6 +1122,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>DenverDen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r192703857-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1017,6 +1143,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>Frank B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r172410574-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1035,6 +1164,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Food_man56</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r169816053-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1053,6 +1185,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Robert D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r166108171-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1065,6 +1200,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Pam E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r163952648-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1089,6 +1227,9 @@
     <t>Our room was clean and ac was wonderful .The staff was friendly and helpful for our week long stay .If all Super 8 motels are like this then I would recommend them to everyone on a budget. The exercise room was handily located near the pool and the washer and dryer was  a  convenience. More</t>
   </si>
   <si>
+    <t>living4Dallas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r162165939-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1116,6 +1257,9 @@
     <t>My wife and I stayed at this motel in part because of the positive reviews we had read earlier and the fact that it was pet friendly. We figured it'd be nicer than staying at Motel 6 but I doubt the experience was that much better than it would've been at the Motel 6. First of all, going into it, I knew there was a pet fee which I thought was a bit high but thought it'd be worth it for what was supposed to be a nice, comfortable motel. I noted on the reservation that we had 2 dogs so there'd be no confusion. When we got to the motel we were given the keys to a room that hadn't been cleaned and we had to ask to change rooms. The next room at least had been cleaned but the mattress was so uncomfortable that it was like sleeping on a rock. Because of that it took hours to be able to actually get any sleep. When we finally were able to get anything resembling sleep, the phone rang at 6:30am and it was the manager at the front desk. Of course he'd woken us up and we never requested a wake up call. The manager asked if my name was Mr. David and I said yes and then he hung up on me. My wife called back to see what the problem was and he told her that...My wife and I stayed at this motel in part because of the positive reviews we had read earlier and the fact that it was pet friendly. We figured it'd be nicer than staying at Motel 6 but I doubt the experience was that much better than it would've been at the Motel 6. First of all, going into it, I knew there was a pet fee which I thought was a bit high but thought it'd be worth it for what was supposed to be a nice, comfortable motel. I noted on the reservation that we had 2 dogs so there'd be no confusion. When we got to the motel we were given the keys to a room that hadn't been cleaned and we had to ask to change rooms. The next room at least had been cleaned but the mattress was so uncomfortable that it was like sleeping on a rock. Because of that it took hours to be able to actually get any sleep. When we finally were able to get anything resembling sleep, the phone rang at 6:30am and it was the manager at the front desk. Of course he'd woken us up and we never requested a wake up call. The manager asked if my name was Mr. David and I said yes and then he hung up on me. My wife called back to see what the problem was and he told her that "they forgot to charge us a pet fee". He asked about how many dogs we had and she told him and she also asked why he called at 6:30am. He tried to tell her I had just been in the lobby getting coffee when of course I was asleep the whole time so I hadn't been anywhere. I got dressed and went to the lobby and asked about why he woke us up and he told me that he called because he was "trying to protect the breakfast". He claimed people from neighboring hotels came over frequently to steal the breakfast and they have to protect it. He said someone came into the office saying they were staying in room #108 which was the room we were put in at first before having to move to the next door room because #108 was dirty. I guess then the guy told him that he was from room #109 but couldn't tell him what his name was so he had to call our room to be sure that I wasn't being a victim of fraud? He also went on to say in addition to having problems with breakfast being stolen that they also have problems with complete strangers knocking on guests doors and harrassing them. So all things considered this place seems very unsafe going by what he said and also from the things we saw going on around the area at night. The manager was very unapologetic and when I got in touch with the general manager, the only thing he offered was 10 percent off a future stay and he was equally unapologetic and making excuses for the manager. Of course this is a family run motel where even when the family is wrong, they're right and when the customers are treated poorly, it can simply be taken away with a few nonsensical excuses. I think sleeping in your car would be better and more comfortable than sleeping in this motel. The valuable breakfast than had to be protected by the way, was a few pastries and some coffee. Typical continental breakfast, nothing fancy but I guess they find it fancy enough to give you an unwelcome wake up call over.More</t>
   </si>
   <si>
+    <t>Charles A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r158652928-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1140,6 +1284,9 @@
     <t>Very good! Really enjoyed the hotel! Great staff room was clean. Quite and very easy access.thank you!More</t>
   </si>
   <si>
+    <t>GIDad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r153340471-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1167,6 +1314,9 @@
     <t>The king room was spacious with a very comfortable bed. The room came with a microwave, mini-fridge, coffee maker, ironing board, hair dryer, cable TV,and free internet. The staff is very friendly and accomodating. There's a very good authentic Mexican restaurant next door as well as two fast food across the street. There are also two convenience stores and a car wash. You can take your chances on one of the questionable hotels in the area or stay at a clean comfortable one like this and not take any hitchhikers when you leave.More</t>
   </si>
   <si>
+    <t>shineTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r146404335-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1194,6 +1344,9 @@
     <t>Hotel is a bit hard to get to. Room doors are outside. Room had frig, microwave, hair dryer, shampoo. Bed was on the hard side for me, but husband thought it was ok. Room needs a little updateing, as some of the furnishing are dated. Room did have a clean smell when we entered. There were some dirty hand prints on frig and bathroom door that should have been wiped down. Some of the towels and washrags were stained. We just didn't use the stained ones. Our stay was not bad just not the best. There is also a Mcdonalds and Arbys right across the street. We did not try the breakfast. The main reason we stayed here is that they have smoking rooms and it's getting very had to find a smoking room in the newer hotels.More</t>
   </si>
   <si>
+    <t>Wade T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r144096070-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1206,6 +1359,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>Aaron S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r136729322-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1230,6 +1386,9 @@
     <t>This was and all around great stay for me.  Clean rooms, friendly staff, and quiet. I cant complain and would recommend this to anyone. The breakfast wasnt much but they had enough to keep me happy. The price of the room isnt bad either.More</t>
   </si>
   <si>
+    <t>Allison P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r135565329-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1251,6 +1410,9 @@
     <t>Stayed at the Super 8 in Greenville, TX last weekend.  Good place, seemed like older, but recently remodeled clean rooms, and pretty good deal if you just need a spot to sleep.  Location is kind of odd - there is a car wash that faces the south side wall of rooms - pretty close to where you are sleeping, but all-in-all, definitely would recommend this place for a spot to stop and sleep while taking a road trip.  Wouldn't want to spend a week there or anything, but it's definitely OK.  And believe me, if it's not clean, I WILL NOT STAY!  The manager was nice to my husband, but we didn't have any issues, so he probably had no reason not to be nice.More</t>
   </si>
   <si>
+    <t>kimisykes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r123716679-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1272,6 +1434,9 @@
     <t>When I checked in for a business trip I thought it was going to be a perfect stay. Kevin was awesome in the beginning, but when they drove me crazy everyday to "swipe" my credit card. I was in the middle of a conference call and they ACTUALLY knocked on my door and wouldn't leave until they "swiped" my card again. Any hotel that does that to a guest that is staying for a undetermined length of time and paying with a credit card, should not be hassled in that manner. Kevin became irate and I checked out. There was a broken beer bottle outside my door that was there for three days until I called. THEN I found a pair of panties that weren't mine when I was moving!  I'd rather sleep in my car-thank youMore</t>
   </si>
   <si>
+    <t>love2tour</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r115171525-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1290,6 +1455,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>old_traveler12345</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r105468448-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1308,6 +1476,9 @@
     <t>April 2011</t>
   </si>
   <si>
+    <t>austintravelindino</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r65172248-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1327,6 +1498,9 @@
   </si>
   <si>
     <t>No offense to the ppl in the last review, but if this is one of the nicest hotels you've stayed in touring the US, you must be on a very small budget.  We had to go to a funeral in the area early in the morning and only stayed one night.  For a Super 8, it's old (and one of those w/ the doors on the outside).  Walls are thin, beds so so.  Breakfast is the typical high-fructose laden wafflles, cereal, juice.  Nothing special  And for Greenville, I'm not sure how they get away w/ charging $80 a night.  They did honor my AAA rate, but I have stayed in much better hotels for and $80 rate.  (looks like the entire area has high rates for some reason). Oh well.  if you just need  a place to crash, I guess it's alright.  The people were nice (excpet when we checked in, the lady at the front desk would not tell me what the walk in rate was since i had booked on the internet- whatever, as my AAA rate was cheaper, but just odd that she wouldn't answer my question)  Place smells and looks old.More</t>
+  </si>
+  <si>
+    <t>justworkin</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r19775291-Super_8_Greenville-Greenville_Texas.html</t>
@@ -1370,6 +1544,9 @@
 Customer Service asked me "if I had drove there, could I drive to another area and find a place ......." Please, what is WRONG with those people I just told them I drove there fro...Stopped in to see if they had a room (smoking) yes they had one.From there it just shocked me!If you want to stay using Rewards card they WILL NOT HONOR AARP/AAA Discounts!!!!!!!!!!!!G, sure am glad I call rewards people as this issue (aaa/aarp) is in thier contract to HONOR Discounts!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!So I went to me truck and called rewards 800# to see what could be done, got reservation with discount.  They honored it "...this time, but not twice" is what they told me.I had stayed at Wichita, KS for 5.5 weeks with not problem!!But tried to fax from there and it did not go through, so I stopped @Blackwell, OK ( Wonderfull people!!). They (Blackwell, OK) resent it but was smeared at other end ( but mom's fax has been working all day without a problem) so when I got to GREENVILLE TX SUPER 8 I needed to sent it AGAIN, BUT they charge $2.00 a sheet, OK fine paid it, sent it ,said it was sent "OK" BUT 2nd Page DID NOT SHOW UP!!!!!!!!!!!!!!Yes, I called Customer Service (on Hold for 35 min) and OOPS sorry, they will not resent 2nd page will have to Pay AGAIN!!!Customer Service asked me "if I had drove there, could I drive to another area and find a place ......." Please, what is WRONG with those people I just told them I drove there fro Wichita .....?????for $79.00 (Regular RATE) you would Think they would resend it.Well so I tried to get Coffee, Had to wait becauce she did not believe there was not any there had to go look for herself when I told she.G, sure am glad I call rewards people as this issue (aaa/aarp) is in thier contract to HONOR!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!More</t>
   </si>
   <si>
+    <t>swim4gold</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r12062307-Super_8_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1386,6 +1563,9 @@
   </si>
   <si>
     <t>December 2007</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d106964-r1542411-Super_8_Greenville-Greenville_Texas.html</t>
@@ -1908,43 +2088,47 @@
       <c r="A2" t="n">
         <v>36186</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>179106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -1966,56 +2150,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36186</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>179107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -2037,56 +2225,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>36186</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>179108</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -2108,56 +2300,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>36186</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>8507</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -2179,56 +2375,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36186</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>179109</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
         <v>85</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" t="s">
-        <v>87</v>
-      </c>
-      <c r="K6" t="s">
-        <v>88</v>
-      </c>
-      <c r="L6" t="s">
-        <v>89</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>80</v>
-      </c>
-      <c r="O6" t="s">
-        <v>81</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -2250,56 +2450,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>36186</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>179110</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -2321,56 +2525,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>36186</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>179111</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -2392,54 +2600,58 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>36186</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>14471</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -2461,56 +2673,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="X9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>36186</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>179112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="L10" t="s">
+        <v>132</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
         <v>123</v>
       </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>115</v>
-      </c>
       <c r="O10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -2532,56 +2748,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="X10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>36186</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>179113</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -2603,56 +2823,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="X11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="Y11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>36186</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>37573</v>
+      </c>
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="J12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -2674,56 +2898,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="X12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="Y12" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>36186</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>304</v>
+      </c>
+      <c r="C13" t="s">
+        <v>157</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="J13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="K13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O13" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -2745,56 +2973,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="X13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="Y13" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>36186</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>179114</v>
+      </c>
+      <c r="C14" t="s">
+        <v>166</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="J14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="K14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2816,41 +3048,45 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="X14" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="Y14" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>36186</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>179115</v>
+      </c>
+      <c r="C15" t="s">
+        <v>176</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="J15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s"/>
@@ -2858,10 +3094,10 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="O15" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -2882,51 +3118,52 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
-      <c r="Y15" t="s"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>36186</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>179116</v>
+      </c>
+      <c r="C16" t="s">
+        <v>180</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="J16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="K16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2948,56 +3185,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="X16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="Y16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>36186</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>179117</v>
+      </c>
+      <c r="C17" t="s">
+        <v>189</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="K17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3009,54 +3250,58 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="X17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="Y17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>36186</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>289</v>
+      </c>
+      <c r="C18" t="s">
+        <v>198</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="J18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="K18" t="s"/>
       <c r="L18" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="n">
         <v>2</v>
@@ -3078,41 +3323,45 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="X18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="Y18" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>36186</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>36332</v>
+      </c>
+      <c r="C19" t="s">
+        <v>205</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="J19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s"/>
@@ -3120,10 +3369,10 @@
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="O19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -3144,51 +3393,52 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
-      <c r="Y19" t="s"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>36186</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>179118</v>
+      </c>
+      <c r="C20" t="s">
+        <v>209</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="J20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="K20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="O20" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -3212,35 +3462,39 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>36186</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>179119</v>
+      </c>
+      <c r="C21" t="s">
+        <v>216</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="J21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="K21" t="s"/>
       <c r="L21" t="s"/>
@@ -3248,10 +3502,10 @@
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -3272,51 +3526,52 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
-      <c r="Y21" t="s"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>36186</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>179120</v>
+      </c>
+      <c r="C22" t="s">
+        <v>221</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="J22" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="K22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -3340,50 +3595,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>36186</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>20089</v>
+      </c>
+      <c r="C23" t="s">
+        <v>228</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="J23" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="K23" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="L23" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="O23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -3407,50 +3666,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>36186</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>118065</v>
+      </c>
+      <c r="C24" t="s">
+        <v>234</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="J24" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="K24" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="L24" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="O24" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3464,50 +3727,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>36186</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>68632</v>
+      </c>
+      <c r="C25" t="s">
+        <v>240</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="J25" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="K25" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="O25" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -3531,48 +3798,52 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>36186</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>6540</v>
+      </c>
+      <c r="C26" t="s">
+        <v>247</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="J26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="K26" t="s"/>
       <c r="L26" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>2</v>
@@ -3596,50 +3867,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>36186</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>179121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>252</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="J27" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="K27" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="L27" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="O27" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -3659,50 +3934,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>36186</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>179122</v>
+      </c>
+      <c r="C28" t="s">
+        <v>260</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="J28" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="K28" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="O28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
@@ -3726,50 +4005,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>36186</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>29378</v>
+      </c>
+      <c r="C29" t="s">
+        <v>267</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="J29" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="K29" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="O29" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3789,35 +4072,39 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>36186</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>179123</v>
+      </c>
+      <c r="C30" t="s">
+        <v>273</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="J30" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="K30" t="s"/>
       <c r="L30" t="s"/>
@@ -3825,10 +4112,10 @@
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -3849,51 +4136,52 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
-      <c r="Y30" t="s"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>36186</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>22207</v>
+      </c>
+      <c r="C31" t="s">
+        <v>277</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="J31" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K31" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="L31" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="O31" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -3913,48 +4201,52 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>36186</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>179124</v>
+      </c>
+      <c r="C32" t="s">
+        <v>285</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="J32" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="K32" t="s"/>
       <c r="L32" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
@@ -3978,50 +4270,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>36186</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>179125</v>
+      </c>
+      <c r="C33" t="s">
+        <v>290</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="J33" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="K33" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="L33" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="O33" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="P33" t="n">
         <v>2</v>
@@ -4039,50 +4335,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>36186</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>179126</v>
+      </c>
+      <c r="C34" t="s">
+        <v>298</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="J34" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="K34" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="L34" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4102,50 +4402,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>36186</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>179127</v>
+      </c>
+      <c r="C35" t="s">
+        <v>306</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="J35" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="K35" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="L35" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4167,56 +4471,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="X35" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="Y35" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>36186</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>179128</v>
+      </c>
+      <c r="C36" t="s">
+        <v>316</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="J36" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="K36" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="L36" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="O36" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -4240,50 +4548,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>36186</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>20895</v>
+      </c>
+      <c r="C37" t="s">
+        <v>322</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="J37" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="K37" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="L37" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="O37" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -4305,54 +4617,58 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="X37" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="Y37" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>36186</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>7909</v>
+      </c>
+      <c r="C38" t="s">
+        <v>332</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="J38" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="K38" t="s"/>
       <c r="L38" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="O38" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4374,47 +4690,51 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="X38" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="Y38" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>36186</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>179129</v>
+      </c>
+      <c r="C39" t="s">
+        <v>339</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="J39" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="K39" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="L39" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
@@ -4441,54 +4761,58 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="X39" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="Y39" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>36186</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>179130</v>
+      </c>
+      <c r="C40" t="s">
+        <v>348</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="J40" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="O40" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -4512,50 +4836,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>36186</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>15626</v>
+      </c>
+      <c r="C41" t="s">
+        <v>353</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="J41" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="K41" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="L41" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="O41" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
@@ -4577,41 +4905,45 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="X41" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="Y41" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>36186</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>6491</v>
+      </c>
+      <c r="C42" t="s">
+        <v>363</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="J42" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="K42" t="s"/>
       <c r="L42" t="s"/>
@@ -4619,10 +4951,10 @@
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4643,51 +4975,52 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
-      <c r="Y42" t="s"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>36186</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>179131</v>
+      </c>
+      <c r="C43" t="s">
+        <v>368</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="J43" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="K43" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="L43" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -4711,50 +5044,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>36186</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>22015</v>
+      </c>
+      <c r="C44" t="s">
+        <v>375</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="J44" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="K44" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="L44" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4778,50 +5115,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>36186</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>72562</v>
+      </c>
+      <c r="C45" t="s">
+        <v>382</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>340</v>
+        <v>384</v>
       </c>
       <c r="J45" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="K45" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="L45" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -4845,35 +5186,39 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>36186</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>6223</v>
+      </c>
+      <c r="C46" t="s">
+        <v>389</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="J46" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="K46" t="s"/>
       <c r="L46" t="s"/>
@@ -4881,10 +5226,10 @@
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="O46" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P46" t="n">
         <v>2</v>
@@ -4905,42 +5250,43 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
-      <c r="Y46" t="s"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>36186</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>179132</v>
+      </c>
+      <c r="C47" t="s">
+        <v>394</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>349</v>
+        <v>395</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>350</v>
+        <v>396</v>
       </c>
       <c r="J47" t="s">
-        <v>351</v>
+        <v>397</v>
       </c>
       <c r="K47" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="L47" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
@@ -4967,56 +5313,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="X47" t="s">
-        <v>355</v>
+        <v>401</v>
       </c>
       <c r="Y47" t="s">
-        <v>356</v>
+        <v>402</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>36186</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>179133</v>
+      </c>
+      <c r="C48" t="s">
+        <v>403</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>357</v>
+        <v>404</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="J48" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="K48" t="s">
-        <v>360</v>
+        <v>407</v>
       </c>
       <c r="L48" t="s">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>362</v>
+        <v>409</v>
       </c>
       <c r="O48" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P48" t="n">
         <v>1</v>
@@ -5038,56 +5388,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>363</v>
+        <v>410</v>
       </c>
       <c r="X48" t="s">
-        <v>364</v>
+        <v>411</v>
       </c>
       <c r="Y48" t="s">
-        <v>365</v>
+        <v>412</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>36186</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>10198</v>
+      </c>
+      <c r="C49" t="s">
+        <v>413</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>367</v>
+        <v>415</v>
       </c>
       <c r="J49" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="K49" t="s">
-        <v>369</v>
+        <v>417</v>
       </c>
       <c r="L49" t="s">
-        <v>370</v>
+        <v>418</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>371</v>
+        <v>419</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5109,56 +5463,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="X49" t="s">
-        <v>364</v>
+        <v>411</v>
       </c>
       <c r="Y49" t="s">
-        <v>373</v>
+        <v>421</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>36186</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>179134</v>
+      </c>
+      <c r="C50" t="s">
+        <v>422</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
       <c r="J50" t="s">
-        <v>376</v>
+        <v>425</v>
       </c>
       <c r="K50" t="s">
-        <v>377</v>
+        <v>426</v>
       </c>
       <c r="L50" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>379</v>
+        <v>428</v>
       </c>
       <c r="O50" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5180,56 +5538,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="X50" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
       <c r="Y50" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>36186</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>7136</v>
+      </c>
+      <c r="C51" t="s">
+        <v>432</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>383</v>
+        <v>433</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="J51" t="s">
-        <v>385</v>
+        <v>435</v>
       </c>
       <c r="K51" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="L51" t="s">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
@@ -5251,41 +5613,45 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="X51" t="s">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="Y51" t="s">
-        <v>391</v>
+        <v>441</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>36186</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>179135</v>
+      </c>
+      <c r="C52" t="s">
+        <v>442</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>392</v>
+        <v>443</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="J52" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="K52" t="s"/>
       <c r="L52" t="s"/>
@@ -5293,10 +5659,10 @@
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="O52" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5317,42 +5683,43 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
-      <c r="Y52" t="s"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>36186</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>14195</v>
+      </c>
+      <c r="C53" t="s">
+        <v>447</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>396</v>
+        <v>448</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>397</v>
+        <v>449</v>
       </c>
       <c r="J53" t="s">
-        <v>398</v>
+        <v>450</v>
       </c>
       <c r="K53" t="s">
-        <v>399</v>
+        <v>451</v>
       </c>
       <c r="L53" t="s">
-        <v>400</v>
+        <v>452</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
@@ -5379,56 +5746,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>401</v>
+        <v>453</v>
       </c>
       <c r="X53" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="Y53" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>36186</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>13376</v>
+      </c>
+      <c r="C54" t="s">
+        <v>456</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>404</v>
+        <v>457</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>405</v>
+        <v>458</v>
       </c>
       <c r="J54" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="K54" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="L54" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -5452,50 +5823,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>36186</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>179136</v>
+      </c>
+      <c r="C55" t="s">
+        <v>464</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>411</v>
+        <v>465</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>412</v>
+        <v>466</v>
       </c>
       <c r="J55" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
       <c r="K55" t="s">
-        <v>414</v>
+        <v>468</v>
       </c>
       <c r="L55" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="M55" t="n">
         <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
       <c r="O55" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -5517,56 +5892,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="X55" t="s">
-        <v>364</v>
+        <v>411</v>
       </c>
       <c r="Y55" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>36186</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>179137</v>
+      </c>
+      <c r="C56" t="s">
+        <v>472</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>418</v>
+        <v>473</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>419</v>
+        <v>474</v>
       </c>
       <c r="J56" t="s">
-        <v>420</v>
+        <v>475</v>
       </c>
       <c r="K56" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="L56" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="O56" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -5586,50 +5965,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>36186</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>179138</v>
+      </c>
+      <c r="C57" t="s">
+        <v>479</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>424</v>
+        <v>480</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>425</v>
+        <v>481</v>
       </c>
       <c r="J57" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="K57" t="s">
-        <v>427</v>
+        <v>483</v>
       </c>
       <c r="L57" t="s">
-        <v>428</v>
+        <v>484</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="O57" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5653,50 +6036,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>428</v>
+        <v>484</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>36186</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>179139</v>
+      </c>
+      <c r="C58" t="s">
+        <v>486</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>430</v>
+        <v>487</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>431</v>
+        <v>488</v>
       </c>
       <c r="J58" t="s">
-        <v>432</v>
+        <v>489</v>
       </c>
       <c r="K58" t="s">
-        <v>433</v>
+        <v>490</v>
       </c>
       <c r="L58" t="s">
-        <v>434</v>
+        <v>491</v>
       </c>
       <c r="M58" t="n">
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>435</v>
+        <v>492</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>1</v>
@@ -5718,50 +6105,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>436</v>
+        <v>493</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>36186</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>179140</v>
+      </c>
+      <c r="C59" t="s">
+        <v>494</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>437</v>
+        <v>495</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="J59" t="s">
-        <v>439</v>
+        <v>497</v>
       </c>
       <c r="K59" t="s">
-        <v>440</v>
+        <v>498</v>
       </c>
       <c r="L59" t="s">
-        <v>441</v>
+        <v>499</v>
       </c>
       <c r="M59" t="n">
         <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="O59" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="P59" t="n">
         <v>2</v>
@@ -5785,50 +6176,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>443</v>
+        <v>501</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>36186</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>179141</v>
+      </c>
+      <c r="C60" t="s">
+        <v>502</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>444</v>
+        <v>503</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>445</v>
+        <v>504</v>
       </c>
       <c r="J60" t="s">
-        <v>446</v>
+        <v>505</v>
       </c>
       <c r="K60" t="s">
-        <v>447</v>
+        <v>506</v>
       </c>
       <c r="L60" t="s">
-        <v>448</v>
+        <v>507</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>449</v>
+        <v>508</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -5852,41 +6247,45 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>448</v>
+        <v>507</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>36186</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>509</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>451</v>
+        <v>511</v>
       </c>
       <c r="J61" t="s">
-        <v>452</v>
+        <v>512</v>
       </c>
       <c r="K61" t="s">
-        <v>453</v>
+        <v>513</v>
       </c>
       <c r="L61" t="s">
-        <v>454</v>
+        <v>514</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
@@ -5905,7 +6304,7 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>455</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
